--- a/Données - sources/RU_IT_ES - housing wealth.xlsx
+++ b/Données - sources/RU_IT_ES - housing wealth.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Desktop\Github\GitHub\StatApp\Données - sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBA21BD-061A-446F-864B-0BA94D291314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49310FD5-457F-40F2-AA28-C4D8E7CFFCE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1245,7 +1245,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="52">
   <si>
     <t>Annual balance sheets for non-financial assets</t>
   </si>
@@ -1411,7 +1411,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="\E\ \ \ #,##0.00;\E\ \ \ \-#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="171" x14ac:knownFonts="1">
     <font>
@@ -1425,735 +1425,905 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="calibri"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="calibri"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF4182D5"/>
-      <name val="calibri"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="173">
@@ -6107,6 +6277,11 @@
     <xf numFmtId="0" fontId="170" fillId="172" borderId="171" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
@@ -6116,11 +6291,6 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6436,18 +6606,18 @@
       </c>
     </row>
     <row r="5" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B5" s="171" t="s">
+      <c r="B5" s="168" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="168" t="s">
+      <c r="B7" s="171" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="169" t="s">
+      <c r="C7" s="172" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="170" t="s">
+      <c r="D7" s="173" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -6966,7 +7136,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B2" s="168" t="s">
+      <c r="B2" s="171" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="34" t="s">
@@ -6983,7 +7153,7 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="B3" s="169" t="s">
+      <c r="B3" s="172" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="35" t="s">
@@ -7000,7 +7170,7 @@
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B4" s="170" t="s">
+      <c r="B4" s="173" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="36" t="s">
@@ -7522,8 +7692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24682EC6-DB62-4561-B4E5-D1D762D966A7}">
   <dimension ref="B2:J222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" zoomScale="64" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H222"/>
+    <sheetView tabSelected="1" topLeftCell="A193" zoomScale="64" workbookViewId="0">
+      <selection activeCell="I211" sqref="I211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7603,25 +7773,34 @@
       <c r="E2" t="s">
         <v>51</v>
       </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>1970</v>
       </c>
-      <c r="C3" s="172"/>
-      <c r="D3" s="172"/>
-      <c r="G3" s="173">
+      <c r="C3" s="169"/>
+      <c r="D3" s="169"/>
+      <c r="G3" s="170">
         <v>25569</v>
       </c>
-      <c r="H3" s="172">
+      <c r="H3" s="169">
         <f>C3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="172">
+      <c r="I3" s="169">
         <f t="shared" ref="I3:J3" si="0">D3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="172">
+      <c r="J3" s="169">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7630,21 +7809,21 @@
       <c r="B4">
         <v>1971</v>
       </c>
-      <c r="C4" s="172"/>
-      <c r="D4" s="172"/>
-      <c r="G4" s="173">
+      <c r="C4" s="169"/>
+      <c r="D4" s="169"/>
+      <c r="G4" s="170">
         <v>25659</v>
       </c>
-      <c r="H4" s="172">
-        <f>H3+(H7-H3)/3</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="172">
-        <f t="shared" ref="I4:J4" si="1">I3+(I7-I3)/3</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="172">
-        <f t="shared" si="1"/>
+      <c r="H4" s="169">
+        <f>H3+(H7-H3)/4</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="169">
+        <f>I3+(I7-I3)/4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="169">
+        <f>J3+(J7-J3)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -7652,21 +7831,21 @@
       <c r="B5">
         <v>1972</v>
       </c>
-      <c r="C5" s="172"/>
-      <c r="D5" s="172"/>
-      <c r="G5" s="173">
+      <c r="C5" s="169"/>
+      <c r="D5" s="169"/>
+      <c r="G5" s="170">
         <v>25750</v>
       </c>
-      <c r="H5" s="172">
+      <c r="H5" s="169">
         <f>H3+(H7-H3)/2</f>
         <v>0</v>
       </c>
-      <c r="I5" s="172">
-        <f t="shared" ref="I5:J5" si="2">I3+(I7-I3)/2</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="172">
-        <f t="shared" si="2"/>
+      <c r="I5" s="169">
+        <f t="shared" ref="I5:J5" si="1">I3+(I7-I3)/2</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="169">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7674,21 +7853,21 @@
       <c r="B6">
         <v>1973</v>
       </c>
-      <c r="C6" s="172"/>
-      <c r="D6" s="172"/>
-      <c r="G6" s="173">
+      <c r="C6" s="169"/>
+      <c r="D6" s="169"/>
+      <c r="G6" s="170">
         <v>25842</v>
       </c>
-      <c r="H6" s="172">
-        <f>H3+(H7-H3)*2/3</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="172">
-        <f t="shared" ref="I6:J6" si="3">I3+(I7-I3)*2/3</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="172">
-        <f t="shared" si="3"/>
+      <c r="H6" s="169">
+        <f>H3+(H7-H3)*3/4</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="169">
+        <f>I3+(I7-I3)*3/4</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="169">
+        <f>J3+(J7-J3)*3/4</f>
         <v>0</v>
       </c>
     </row>
@@ -7696,21 +7875,21 @@
       <c r="B7">
         <v>1974</v>
       </c>
-      <c r="C7" s="172"/>
-      <c r="D7" s="172"/>
-      <c r="G7" s="173">
+      <c r="C7" s="169"/>
+      <c r="D7" s="169"/>
+      <c r="G7" s="170">
         <v>25934</v>
       </c>
-      <c r="H7" s="172">
+      <c r="H7" s="169">
         <f>C4</f>
         <v>0</v>
       </c>
-      <c r="I7" s="172">
-        <f t="shared" ref="I7:J7" si="4">D4</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="172">
-        <f t="shared" si="4"/>
+      <c r="I7" s="169">
+        <f t="shared" ref="I7:J7" si="2">D4</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="169">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7718,21 +7897,21 @@
       <c r="B8">
         <v>1975</v>
       </c>
-      <c r="C8" s="172"/>
-      <c r="D8" s="172"/>
-      <c r="G8" s="173">
+      <c r="C8" s="169"/>
+      <c r="D8" s="169"/>
+      <c r="G8" s="170">
         <v>26024</v>
       </c>
-      <c r="H8" s="172">
-        <f>H7+(H11-H7)/3</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="172">
-        <f t="shared" ref="I8:J8" si="5">I7+(I11-I7)/3</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="172">
-        <f t="shared" si="5"/>
+      <c r="H8" s="169">
+        <f>H7+(H11-H7)/4</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="169">
+        <f>I7+(I11-I7)/4</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="169">
+        <f>J7+(J11-J7)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -7740,21 +7919,21 @@
       <c r="B9">
         <v>1976</v>
       </c>
-      <c r="C9" s="172"/>
-      <c r="D9" s="172"/>
-      <c r="G9" s="173">
+      <c r="C9" s="169"/>
+      <c r="D9" s="169"/>
+      <c r="G9" s="170">
         <v>26115</v>
       </c>
-      <c r="H9" s="172">
+      <c r="H9" s="169">
         <f>H7+(H11-H7)/2</f>
         <v>0</v>
       </c>
-      <c r="I9" s="172">
-        <f t="shared" ref="I9:J9" si="6">I7+(I11-I7)/2</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="172">
-        <f t="shared" si="6"/>
+      <c r="I9" s="169">
+        <f t="shared" ref="I9:J9" si="3">I7+(I11-I7)/2</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="169">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7762,21 +7941,21 @@
       <c r="B10">
         <v>1977</v>
       </c>
-      <c r="C10" s="172"/>
-      <c r="D10" s="172"/>
-      <c r="G10" s="173">
+      <c r="C10" s="169"/>
+      <c r="D10" s="169"/>
+      <c r="G10" s="170">
         <v>26207</v>
       </c>
-      <c r="H10" s="172">
-        <f>H7+(H11-H7)*2/3</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="172">
-        <f t="shared" ref="I10:J10" si="7">I7+(I11-I7)*2/3</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="172">
-        <f t="shared" si="7"/>
+      <c r="H10" s="169">
+        <f>H7+(H11-H7)*3/4</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="169">
+        <f>I7+(I11-I7)*3/4</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="169">
+        <f>J7+(J11-J7)*3/4</f>
         <v>0</v>
       </c>
     </row>
@@ -7784,21 +7963,21 @@
       <c r="B11">
         <v>1978</v>
       </c>
-      <c r="C11" s="172"/>
-      <c r="D11" s="172"/>
-      <c r="G11" s="173">
+      <c r="C11" s="169"/>
+      <c r="D11" s="169"/>
+      <c r="G11" s="170">
         <v>26299</v>
       </c>
-      <c r="H11" s="172">
+      <c r="H11" s="169">
         <f>C5</f>
         <v>0</v>
       </c>
-      <c r="I11" s="172">
-        <f t="shared" ref="I11:J11" si="8">D5</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="172">
-        <f t="shared" si="8"/>
+      <c r="I11" s="169">
+        <f t="shared" ref="I11:J11" si="4">D5</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="169">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7806,21 +7985,21 @@
       <c r="B12">
         <v>1979</v>
       </c>
-      <c r="C12" s="172"/>
-      <c r="D12" s="172"/>
-      <c r="G12" s="173">
+      <c r="C12" s="169"/>
+      <c r="D12" s="169"/>
+      <c r="G12" s="170">
         <v>26390</v>
       </c>
-      <c r="H12" s="172">
-        <f>H11+(H15-H11)/3</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="172">
-        <f t="shared" ref="I12:J12" si="9">I11+(I15-I11)/3</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="172">
-        <f t="shared" si="9"/>
+      <c r="H12" s="169">
+        <f>H11+(H15-H11)/4</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="169">
+        <f>I11+(I15-I11)/4</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="169">
+        <f>J11+(J15-J11)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -7828,21 +8007,21 @@
       <c r="B13">
         <v>1980</v>
       </c>
-      <c r="C13" s="172"/>
-      <c r="D13" s="172"/>
-      <c r="G13" s="173">
+      <c r="C13" s="169"/>
+      <c r="D13" s="169"/>
+      <c r="G13" s="170">
         <v>26481</v>
       </c>
-      <c r="H13" s="172">
+      <c r="H13" s="169">
         <f>H11+(H15-H11)/2</f>
         <v>0</v>
       </c>
-      <c r="I13" s="172">
-        <f t="shared" ref="I13:J13" si="10">I11+(I15-I11)/2</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="172">
-        <f t="shared" si="10"/>
+      <c r="I13" s="169">
+        <f t="shared" ref="I13:J13" si="5">I11+(I15-I11)/2</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="169">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7850,21 +8029,21 @@
       <c r="B14">
         <v>1981</v>
       </c>
-      <c r="C14" s="172"/>
-      <c r="D14" s="172"/>
-      <c r="G14" s="173">
+      <c r="C14" s="169"/>
+      <c r="D14" s="169"/>
+      <c r="G14" s="170">
         <v>26573</v>
       </c>
-      <c r="H14" s="172">
-        <f>H11+(H15-H11)*2/3</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="172">
-        <f t="shared" ref="I14:J14" si="11">I11+(I15-I11)*2/3</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="172">
-        <f t="shared" si="11"/>
+      <c r="H14" s="169">
+        <f>H11+(H15-H11)*3/4</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="169">
+        <f>I11+(I15-I11)*3/4</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="169">
+        <f>J11+(J15-J11)*3/4</f>
         <v>0</v>
       </c>
     </row>
@@ -7872,21 +8051,21 @@
       <c r="B15">
         <v>1982</v>
       </c>
-      <c r="C15" s="172"/>
-      <c r="D15" s="172"/>
-      <c r="G15" s="173">
+      <c r="C15" s="169"/>
+      <c r="D15" s="169"/>
+      <c r="G15" s="170">
         <v>26665</v>
       </c>
-      <c r="H15" s="172">
+      <c r="H15" s="169">
         <f>C6</f>
         <v>0</v>
       </c>
-      <c r="I15" s="172">
-        <f t="shared" ref="I15:J15" si="12">D6</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="172">
-        <f t="shared" si="12"/>
+      <c r="I15" s="169">
+        <f t="shared" ref="I15:J15" si="6">D6</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="169">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7894,21 +8073,21 @@
       <c r="B16">
         <v>1983</v>
       </c>
-      <c r="C16" s="172"/>
-      <c r="D16" s="172"/>
-      <c r="G16" s="173">
+      <c r="C16" s="169"/>
+      <c r="D16" s="169"/>
+      <c r="G16" s="170">
         <v>26755</v>
       </c>
-      <c r="H16" s="172">
-        <f>H15+(H19-H15)/3</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="172">
-        <f t="shared" ref="I16:J16" si="13">I15+(I19-I15)/3</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="172">
-        <f t="shared" si="13"/>
+      <c r="H16" s="169">
+        <f>H15+(H19-H15)/4</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="169">
+        <f>I15+(I19-I15)/4</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="169">
+        <f>J15+(J19-J15)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -7916,21 +8095,21 @@
       <c r="B17">
         <v>1984</v>
       </c>
-      <c r="C17" s="172"/>
-      <c r="D17" s="172"/>
-      <c r="G17" s="173">
+      <c r="C17" s="169"/>
+      <c r="D17" s="169"/>
+      <c r="G17" s="170">
         <v>26846</v>
       </c>
-      <c r="H17" s="172">
+      <c r="H17" s="169">
         <f>H15+(H19-H15)/2</f>
         <v>0</v>
       </c>
-      <c r="I17" s="172">
-        <f t="shared" ref="I17:J17" si="14">I15+(I19-I15)/2</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="172">
-        <f t="shared" si="14"/>
+      <c r="I17" s="169">
+        <f t="shared" ref="I17:J17" si="7">I15+(I19-I15)/2</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="169">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -7938,21 +8117,21 @@
       <c r="B18">
         <v>1985</v>
       </c>
-      <c r="C18" s="172"/>
-      <c r="D18" s="172"/>
-      <c r="G18" s="173">
+      <c r="C18" s="169"/>
+      <c r="D18" s="169"/>
+      <c r="G18" s="170">
         <v>26938</v>
       </c>
-      <c r="H18" s="172">
-        <f>H15+(H19-H15)*2/3</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="172">
-        <f t="shared" ref="I18:J18" si="15">I15+(I19-I15)*2/3</f>
-        <v>0</v>
-      </c>
-      <c r="J18" s="172">
-        <f t="shared" si="15"/>
+      <c r="H18" s="169">
+        <f>H15+(H19-H15)*3/4</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="169">
+        <f>I15+(I19-I15)*3/4</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="169">
+        <f>J15+(J19-J15)*3/4</f>
         <v>0</v>
       </c>
     </row>
@@ -7960,21 +8139,21 @@
       <c r="B19">
         <v>1986</v>
       </c>
-      <c r="C19" s="172"/>
-      <c r="D19" s="172"/>
-      <c r="G19" s="173">
+      <c r="C19" s="169"/>
+      <c r="D19" s="169"/>
+      <c r="G19" s="170">
         <v>27030</v>
       </c>
-      <c r="H19" s="172">
+      <c r="H19" s="169">
         <f>C7</f>
         <v>0</v>
       </c>
-      <c r="I19" s="172">
-        <f t="shared" ref="I19:J19" si="16">D7</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="172">
-        <f t="shared" si="16"/>
+      <c r="I19" s="169">
+        <f t="shared" ref="I19:J19" si="8">D7</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="169">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -7982,21 +8161,21 @@
       <c r="B20">
         <v>1987</v>
       </c>
-      <c r="C20" s="172"/>
-      <c r="D20" s="172"/>
-      <c r="G20" s="173">
+      <c r="C20" s="169"/>
+      <c r="D20" s="169"/>
+      <c r="G20" s="170">
         <v>27120</v>
       </c>
-      <c r="H20" s="172">
-        <f>H19+(H23-H19)/3</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="172">
-        <f t="shared" ref="I20:J20" si="17">I19+(I23-I19)/3</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="172">
-        <f t="shared" si="17"/>
+      <c r="H20" s="169">
+        <f>H19+(H23-H19)/4</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="169">
+        <f>I19+(I23-I19)/4</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="169">
+        <f>J19+(J23-J19)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -8004,21 +8183,21 @@
       <c r="B21">
         <v>1988</v>
       </c>
-      <c r="C21" s="172"/>
-      <c r="D21" s="172"/>
-      <c r="G21" s="173">
+      <c r="C21" s="169"/>
+      <c r="D21" s="169"/>
+      <c r="G21" s="170">
         <v>27211</v>
       </c>
-      <c r="H21" s="172">
+      <c r="H21" s="169">
         <f>H19+(H23-H19)/2</f>
         <v>0</v>
       </c>
-      <c r="I21" s="172">
-        <f t="shared" ref="I21:J21" si="18">I19+(I23-I19)/2</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="172">
-        <f t="shared" si="18"/>
+      <c r="I21" s="169">
+        <f t="shared" ref="I21:J21" si="9">I19+(I23-I19)/2</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="169">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -8026,21 +8205,21 @@
       <c r="B22">
         <v>1989</v>
       </c>
-      <c r="C22" s="172"/>
-      <c r="D22" s="172"/>
-      <c r="G22" s="173">
+      <c r="C22" s="169"/>
+      <c r="D22" s="169"/>
+      <c r="G22" s="170">
         <v>27303</v>
       </c>
-      <c r="H22" s="172">
-        <f>H19+(H23-H19)*2/3</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="172">
-        <f t="shared" ref="I22:J22" si="19">I19+(I23-I19)*2/3</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="172">
-        <f t="shared" si="19"/>
+      <c r="H22" s="169">
+        <f>H19+(H23-H19)*3/4</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="169">
+        <f>I19+(I23-I19)*3/4</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="169">
+        <f>J19+(J23-J19)*3/4</f>
         <v>0</v>
       </c>
     </row>
@@ -8048,21 +8227,21 @@
       <c r="B23">
         <v>1990</v>
       </c>
-      <c r="C23" s="172"/>
-      <c r="D23" s="172"/>
-      <c r="G23" s="173">
+      <c r="C23" s="169"/>
+      <c r="D23" s="169"/>
+      <c r="G23" s="170">
         <v>27395</v>
       </c>
-      <c r="H23" s="172">
+      <c r="H23" s="169">
         <f>C8</f>
         <v>0</v>
       </c>
-      <c r="I23" s="172">
-        <f t="shared" ref="I23:J23" si="20">D8</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="172">
-        <f t="shared" si="20"/>
+      <c r="I23" s="169">
+        <f t="shared" ref="I23:J23" si="10">D8</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="169">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -8070,21 +8249,21 @@
       <c r="B24">
         <v>1991</v>
       </c>
-      <c r="C24" s="172"/>
-      <c r="D24" s="172"/>
-      <c r="G24" s="173">
+      <c r="C24" s="169"/>
+      <c r="D24" s="169"/>
+      <c r="G24" s="170">
         <v>27485</v>
       </c>
-      <c r="H24" s="172">
-        <f>H23+(H27-H23)/3</f>
-        <v>0</v>
-      </c>
-      <c r="I24" s="172">
-        <f t="shared" ref="I24:J24" si="21">I23+(I27-I23)/3</f>
-        <v>0</v>
-      </c>
-      <c r="J24" s="172">
-        <f t="shared" si="21"/>
+      <c r="H24" s="169">
+        <f>H23+(H27-H23)/4</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="169">
+        <f>I23+(I27-I23)/4</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="169">
+        <f>J23+(J27-J23)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -8092,21 +8271,21 @@
       <c r="B25">
         <v>1992</v>
       </c>
-      <c r="C25" s="172"/>
-      <c r="D25" s="172"/>
-      <c r="G25" s="173">
+      <c r="C25" s="169"/>
+      <c r="D25" s="169"/>
+      <c r="G25" s="170">
         <v>27576</v>
       </c>
-      <c r="H25" s="172">
+      <c r="H25" s="169">
         <f>H23+(H27-H23)/2</f>
         <v>0</v>
       </c>
-      <c r="I25" s="172">
-        <f t="shared" ref="I25:J25" si="22">I23+(I27-I23)/2</f>
-        <v>0</v>
-      </c>
-      <c r="J25" s="172">
-        <f t="shared" si="22"/>
+      <c r="I25" s="169">
+        <f t="shared" ref="I25:J25" si="11">I23+(I27-I23)/2</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="169">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -8114,21 +8293,21 @@
       <c r="B26">
         <v>1993</v>
       </c>
-      <c r="C26" s="172"/>
-      <c r="D26" s="172"/>
-      <c r="G26" s="173">
+      <c r="C26" s="169"/>
+      <c r="D26" s="169"/>
+      <c r="G26" s="170">
         <v>27668</v>
       </c>
-      <c r="H26" s="172">
-        <f>H23+(H27-H23)*2/3</f>
-        <v>0</v>
-      </c>
-      <c r="I26" s="172">
-        <f t="shared" ref="I26:J26" si="23">I23+(I27-I23)*2/3</f>
-        <v>0</v>
-      </c>
-      <c r="J26" s="172">
-        <f t="shared" si="23"/>
+      <c r="H26" s="169">
+        <f>H23+(H27-H23)*3/4</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="169">
+        <f>I23+(I27-I23)*3/4</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="169">
+        <f>J23+(J27-J23)*3/4</f>
         <v>0</v>
       </c>
     </row>
@@ -8136,21 +8315,21 @@
       <c r="B27">
         <v>1994</v>
       </c>
-      <c r="C27" s="172"/>
-      <c r="D27" s="172"/>
-      <c r="G27" s="173">
+      <c r="C27" s="169"/>
+      <c r="D27" s="169"/>
+      <c r="G27" s="170">
         <v>27760</v>
       </c>
-      <c r="H27" s="172">
+      <c r="H27" s="169">
         <f>C9</f>
         <v>0</v>
       </c>
-      <c r="I27" s="172">
-        <f t="shared" ref="I27:J27" si="24">D9</f>
-        <v>0</v>
-      </c>
-      <c r="J27" s="172">
-        <f t="shared" si="24"/>
+      <c r="I27" s="169">
+        <f t="shared" ref="I27:J27" si="12">D9</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="169">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -8167,19 +8346,19 @@
       <c r="E28" s="133">
         <v>468445</v>
       </c>
-      <c r="G28" s="173">
+      <c r="G28" s="170">
         <v>27851</v>
       </c>
-      <c r="H28" s="172">
-        <f>H27+(H31-H27)/3</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="172">
-        <f t="shared" ref="I28:J28" si="25">I27+(I31-I27)/3</f>
-        <v>0</v>
-      </c>
-      <c r="J28" s="172">
-        <f t="shared" si="25"/>
+      <c r="H28" s="169">
+        <f>H27+(H31-H27)/4</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="169">
+        <f>I27+(I31-I27)/4</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="169">
+        <f>J27+(J31-J27)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -8196,19 +8375,19 @@
       <c r="E29" s="134">
         <v>484236</v>
       </c>
-      <c r="G29" s="173">
+      <c r="G29" s="170">
         <v>27942</v>
       </c>
-      <c r="H29" s="172">
+      <c r="H29" s="169">
         <f>H27+(H31-H27)/2</f>
         <v>0</v>
       </c>
-      <c r="I29" s="172">
-        <f t="shared" ref="I29:J29" si="26">I27+(I31-I27)/2</f>
-        <v>0</v>
-      </c>
-      <c r="J29" s="172">
-        <f t="shared" si="26"/>
+      <c r="I29" s="169">
+        <f t="shared" ref="I29:J29" si="13">I27+(I31-I27)/2</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="169">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -8225,19 +8404,19 @@
       <c r="E30" s="135">
         <v>508255</v>
       </c>
-      <c r="G30" s="173">
+      <c r="G30" s="170">
         <v>28034</v>
       </c>
-      <c r="H30" s="172">
-        <f>H27+(H31-H27)*2/3</f>
-        <v>0</v>
-      </c>
-      <c r="I30" s="172">
-        <f t="shared" ref="I30:J30" si="27">I27+(I31-I27)*2/3</f>
-        <v>0</v>
-      </c>
-      <c r="J30" s="172">
-        <f t="shared" si="27"/>
+      <c r="H30" s="169">
+        <f>H27+(H31-H27)*3/4</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="169">
+        <f>I27+(I31-I27)*3/4</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="169">
+        <f>J27+(J31-J27)*3/4</f>
         <v>0</v>
       </c>
     </row>
@@ -8254,19 +8433,19 @@
       <c r="E31" s="136">
         <v>541916</v>
       </c>
-      <c r="G31" s="173">
+      <c r="G31" s="170">
         <v>28126</v>
       </c>
-      <c r="H31" s="172">
+      <c r="H31" s="169">
         <f>C10</f>
         <v>0</v>
       </c>
-      <c r="I31" s="172">
-        <f t="shared" ref="I31:J31" si="28">D10</f>
-        <v>0</v>
-      </c>
-      <c r="J31" s="172">
-        <f t="shared" si="28"/>
+      <c r="I31" s="169">
+        <f t="shared" ref="I31:J31" si="14">D10</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="169">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -8283,19 +8462,19 @@
       <c r="E32" s="137">
         <v>580220</v>
       </c>
-      <c r="G32" s="173">
+      <c r="G32" s="170">
         <v>28216</v>
       </c>
-      <c r="H32" s="172">
-        <f>H31+(H35-H31)/3</f>
-        <v>0</v>
-      </c>
-      <c r="I32" s="172">
-        <f t="shared" ref="I32:J32" si="29">I31+(I35-I31)/3</f>
-        <v>0</v>
-      </c>
-      <c r="J32" s="172">
-        <f t="shared" si="29"/>
+      <c r="H32" s="169">
+        <f>H31+(H35-H31)/4</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="169">
+        <f>I31+(I35-I31)/4</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="169">
+        <f>J31+(J35-J31)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -8312,19 +8491,19 @@
       <c r="E33" s="138">
         <v>607457</v>
       </c>
-      <c r="G33" s="173">
+      <c r="G33" s="170">
         <v>28307</v>
       </c>
-      <c r="H33" s="172">
+      <c r="H33" s="169">
         <f>H31+(H35-H31)/2</f>
         <v>0</v>
       </c>
-      <c r="I33" s="172">
-        <f t="shared" ref="I33:J33" si="30">I31+(I35-I31)/2</f>
-        <v>0</v>
-      </c>
-      <c r="J33" s="172">
-        <f t="shared" si="30"/>
+      <c r="I33" s="169">
+        <f t="shared" ref="I33:J33" si="15">I31+(I35-I31)/2</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="169">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -8341,19 +8520,19 @@
       <c r="E34" s="139">
         <v>642431</v>
       </c>
-      <c r="G34" s="173">
+      <c r="G34" s="170">
         <v>28399</v>
       </c>
-      <c r="H34" s="172">
-        <f>H31+(H35-H31)*2/3</f>
-        <v>0</v>
-      </c>
-      <c r="I34" s="172">
-        <f t="shared" ref="I34:J34" si="31">I31+(I35-I31)*2/3</f>
-        <v>0</v>
-      </c>
-      <c r="J34" s="172">
-        <f t="shared" si="31"/>
+      <c r="H34" s="169">
+        <f>H31+(H35-H31)*3/4</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="169">
+        <f>I31+(I35-I31)*3/4</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="169">
+        <f>J31+(J35-J31)*3/4</f>
         <v>0</v>
       </c>
     </row>
@@ -8370,19 +8549,19 @@
       <c r="E35" s="140">
         <v>694743</v>
       </c>
-      <c r="G35" s="173">
+      <c r="G35" s="170">
         <v>28491</v>
       </c>
-      <c r="H35" s="172">
+      <c r="H35" s="169">
         <f>C11</f>
         <v>0</v>
       </c>
-      <c r="I35" s="172">
-        <f t="shared" ref="I35:J35" si="32">D11</f>
-        <v>0</v>
-      </c>
-      <c r="J35" s="172">
-        <f t="shared" si="32"/>
+      <c r="I35" s="169">
+        <f t="shared" ref="I35:J35" si="16">D11</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="169">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -8399,19 +8578,19 @@
       <c r="E36" s="141">
         <v>764338</v>
       </c>
-      <c r="G36" s="173">
+      <c r="G36" s="170">
         <v>28581</v>
       </c>
-      <c r="H36" s="172">
-        <f>H35+(H39-H35)/3</f>
-        <v>0</v>
-      </c>
-      <c r="I36" s="172">
-        <f t="shared" ref="I36:J36" si="33">I35+(I39-I35)/3</f>
-        <v>0</v>
-      </c>
-      <c r="J36" s="172">
-        <f t="shared" si="33"/>
+      <c r="H36" s="169">
+        <f>H35+(H39-H35)/4</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="169">
+        <f>I35+(I39-I35)/4</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="169">
+        <f>J35+(J39-J35)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -8428,19 +8607,19 @@
       <c r="E37" s="142">
         <v>835372</v>
       </c>
-      <c r="G37" s="173">
+      <c r="G37" s="170">
         <v>28672</v>
       </c>
-      <c r="H37" s="172">
+      <c r="H37" s="169">
         <f>H35+(H39-H35)/2</f>
         <v>0</v>
       </c>
-      <c r="I37" s="172">
-        <f t="shared" ref="I37:J37" si="34">I35+(I39-I35)/2</f>
-        <v>0</v>
-      </c>
-      <c r="J37" s="172">
-        <f t="shared" si="34"/>
+      <c r="I37" s="169">
+        <f t="shared" ref="I37:J37" si="17">I35+(I39-I35)/2</f>
+        <v>0</v>
+      </c>
+      <c r="J37" s="169">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -8457,19 +8636,19 @@
       <c r="E38" s="143">
         <v>921293</v>
       </c>
-      <c r="G38" s="173">
+      <c r="G38" s="170">
         <v>28764</v>
       </c>
-      <c r="H38" s="172">
-        <f>H35+(H39-H35)*2/3</f>
-        <v>0</v>
-      </c>
-      <c r="I38" s="172">
-        <f t="shared" ref="I38:J38" si="35">I35+(I39-I35)*2/3</f>
-        <v>0</v>
-      </c>
-      <c r="J38" s="172">
-        <f t="shared" si="35"/>
+      <c r="H38" s="169">
+        <f>H35+(H39-H35)*3/4</f>
+        <v>0</v>
+      </c>
+      <c r="I38" s="169">
+        <f>I35+(I39-I35)*3/4</f>
+        <v>0</v>
+      </c>
+      <c r="J38" s="169">
+        <f>J35+(J39-J35)*3/4</f>
         <v>0</v>
       </c>
     </row>
@@ -8486,19 +8665,19 @@
       <c r="E39" s="144">
         <v>991568</v>
       </c>
-      <c r="G39" s="173">
+      <c r="G39" s="170">
         <v>28856</v>
       </c>
-      <c r="H39" s="172">
+      <c r="H39" s="169">
         <f>C12</f>
         <v>0</v>
       </c>
-      <c r="I39" s="172">
-        <f t="shared" ref="I39:J39" si="36">D12</f>
-        <v>0</v>
-      </c>
-      <c r="J39" s="172">
-        <f t="shared" si="36"/>
+      <c r="I39" s="169">
+        <f t="shared" ref="I39:J39" si="18">D12</f>
+        <v>0</v>
+      </c>
+      <c r="J39" s="169">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -8515,19 +8694,19 @@
       <c r="E40" s="145">
         <v>1067628</v>
       </c>
-      <c r="G40" s="173">
+      <c r="G40" s="170">
         <v>28946</v>
       </c>
-      <c r="H40" s="172">
-        <f>H39+(H43-H39)/3</f>
-        <v>0</v>
-      </c>
-      <c r="I40" s="172">
-        <f t="shared" ref="I40:J40" si="37">I39+(I43-I39)/3</f>
-        <v>0</v>
-      </c>
-      <c r="J40" s="172">
-        <f t="shared" si="37"/>
+      <c r="H40" s="169">
+        <f>H39+(H43-H39)/4</f>
+        <v>0</v>
+      </c>
+      <c r="I40" s="169">
+        <f>I39+(I43-I39)/4</f>
+        <v>0</v>
+      </c>
+      <c r="J40" s="169">
+        <f>J39+(J43-J39)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -8544,19 +8723,19 @@
       <c r="E41" s="146">
         <v>1156912</v>
       </c>
-      <c r="G41" s="173">
+      <c r="G41" s="170">
         <v>29037</v>
       </c>
-      <c r="H41" s="172">
+      <c r="H41" s="169">
         <f>H39+(H43-H39)/2</f>
         <v>0</v>
       </c>
-      <c r="I41" s="172">
-        <f t="shared" ref="I41:J41" si="38">I39+(I43-I39)/2</f>
-        <v>0</v>
-      </c>
-      <c r="J41" s="172">
-        <f t="shared" si="38"/>
+      <c r="I41" s="169">
+        <f t="shared" ref="I41:J41" si="19">I39+(I43-I39)/2</f>
+        <v>0</v>
+      </c>
+      <c r="J41" s="169">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -8573,19 +8752,19 @@
       <c r="E42" s="147">
         <v>1149707</v>
       </c>
-      <c r="G42" s="173">
+      <c r="G42" s="170">
         <v>29129</v>
       </c>
-      <c r="H42" s="172">
-        <f>H39+(H43-H39)*2/3</f>
-        <v>0</v>
-      </c>
-      <c r="I42" s="172">
-        <f t="shared" ref="I42:J42" si="39">I39+(I43-I39)*2/3</f>
-        <v>0</v>
-      </c>
-      <c r="J42" s="172">
-        <f t="shared" si="39"/>
+      <c r="H42" s="169">
+        <f>H39+(H43-H39)*3/4</f>
+        <v>0</v>
+      </c>
+      <c r="I42" s="169">
+        <f>I39+(I43-I39)*3/4</f>
+        <v>0</v>
+      </c>
+      <c r="J42" s="169">
+        <f>J39+(J43-J39)*3/4</f>
         <v>0</v>
       </c>
     </row>
@@ -8602,19 +8781,19 @@
       <c r="E43" s="148">
         <v>1150719</v>
       </c>
-      <c r="G43" s="173">
+      <c r="G43" s="170">
         <v>29221</v>
       </c>
-      <c r="H43" s="172">
+      <c r="H43" s="169">
         <f>C13</f>
         <v>0</v>
       </c>
-      <c r="I43" s="172">
-        <f t="shared" ref="I43:J43" si="40">D13</f>
-        <v>0</v>
-      </c>
-      <c r="J43" s="172">
-        <f t="shared" si="40"/>
+      <c r="I43" s="169">
+        <f t="shared" ref="I43:J43" si="20">D13</f>
+        <v>0</v>
+      </c>
+      <c r="J43" s="169">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -8631,19 +8810,19 @@
       <c r="E44" s="149">
         <v>1183858</v>
       </c>
-      <c r="G44" s="173">
+      <c r="G44" s="170">
         <v>29312</v>
       </c>
-      <c r="H44" s="172">
-        <f>H43+(H47-H43)/3</f>
-        <v>0</v>
-      </c>
-      <c r="I44" s="172">
-        <f t="shared" ref="I44:J44" si="41">I43+(I47-I43)/3</f>
-        <v>0</v>
-      </c>
-      <c r="J44" s="172">
-        <f t="shared" si="41"/>
+      <c r="H44" s="169">
+        <f>H43+(H47-H43)/4</f>
+        <v>0</v>
+      </c>
+      <c r="I44" s="169">
+        <f>I43+(I47-I43)/4</f>
+        <v>0</v>
+      </c>
+      <c r="J44" s="169">
+        <f>J43+(J47-J43)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -8660,19 +8839,19 @@
       <c r="E45" s="150">
         <v>1215274</v>
       </c>
-      <c r="G45" s="173">
+      <c r="G45" s="170">
         <v>29403</v>
       </c>
-      <c r="H45" s="172">
+      <c r="H45" s="169">
         <f>H43+(H47-H43)/2</f>
         <v>0</v>
       </c>
-      <c r="I45" s="172">
-        <f t="shared" ref="I45:J45" si="42">I43+(I47-I43)/2</f>
-        <v>0</v>
-      </c>
-      <c r="J45" s="172">
-        <f t="shared" si="42"/>
+      <c r="I45" s="169">
+        <f t="shared" ref="I45:J45" si="21">I43+(I47-I43)/2</f>
+        <v>0</v>
+      </c>
+      <c r="J45" s="169">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -8689,19 +8868,19 @@
       <c r="E46" s="151">
         <v>1244215</v>
       </c>
-      <c r="G46" s="173">
+      <c r="G46" s="170">
         <v>29495</v>
       </c>
-      <c r="H46" s="172">
-        <f>H43+(H47-H43)*2/3</f>
-        <v>0</v>
-      </c>
-      <c r="I46" s="172">
-        <f t="shared" ref="I46:J46" si="43">I43+(I47-I43)*2/3</f>
-        <v>0</v>
-      </c>
-      <c r="J46" s="172">
-        <f t="shared" si="43"/>
+      <c r="H46" s="169">
+        <f>H43+(H47-H43)*3/4</f>
+        <v>0</v>
+      </c>
+      <c r="I46" s="169">
+        <f>I43+(I47-I43)*3/4</f>
+        <v>0</v>
+      </c>
+      <c r="J46" s="169">
+        <f>J43+(J47-J43)*3/4</f>
         <v>0</v>
       </c>
     </row>
@@ -8718,19 +8897,19 @@
       <c r="E47" s="152">
         <v>1264982</v>
       </c>
-      <c r="G47" s="173">
+      <c r="G47" s="170">
         <v>29587</v>
       </c>
-      <c r="H47" s="172">
+      <c r="H47" s="169">
         <f>C14</f>
         <v>0</v>
       </c>
-      <c r="I47" s="172">
-        <f t="shared" ref="I47:J47" si="44">D14</f>
-        <v>0</v>
-      </c>
-      <c r="J47" s="172">
-        <f t="shared" si="44"/>
+      <c r="I47" s="169">
+        <f t="shared" ref="I47:J47" si="22">D14</f>
+        <v>0</v>
+      </c>
+      <c r="J47" s="169">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -8747,19 +8926,19 @@
       <c r="E48" s="153">
         <v>1267843</v>
       </c>
-      <c r="G48" s="173">
+      <c r="G48" s="170">
         <v>29677</v>
       </c>
-      <c r="H48" s="172">
-        <f>H47+(H51-H47)/3</f>
-        <v>0</v>
-      </c>
-      <c r="I48" s="172">
-        <f t="shared" ref="I48:J48" si="45">I47+(I51-I47)/3</f>
-        <v>0</v>
-      </c>
-      <c r="J48" s="172">
-        <f t="shared" si="45"/>
+      <c r="H48" s="169">
+        <f>H47+(H51-H47)/4</f>
+        <v>0</v>
+      </c>
+      <c r="I48" s="169">
+        <f>I47+(I51-I47)/4</f>
+        <v>0</v>
+      </c>
+      <c r="J48" s="169">
+        <f>J47+(J51-J47)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -8776,19 +8955,19 @@
       <c r="E49" s="154">
         <v>1310996</v>
       </c>
-      <c r="G49" s="173">
+      <c r="G49" s="170">
         <v>29768</v>
       </c>
-      <c r="H49" s="172">
+      <c r="H49" s="169">
         <f>H47+(H51-H47)/2</f>
         <v>0</v>
       </c>
-      <c r="I49" s="172">
-        <f t="shared" ref="I49:J49" si="46">I47+(I51-I47)/2</f>
-        <v>0</v>
-      </c>
-      <c r="J49" s="172">
-        <f t="shared" si="46"/>
+      <c r="I49" s="169">
+        <f t="shared" ref="I49:J49" si="23">I47+(I51-I47)/2</f>
+        <v>0</v>
+      </c>
+      <c r="J49" s="169">
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -8805,19 +8984,19 @@
       <c r="E50" s="155">
         <v>1364102</v>
       </c>
-      <c r="G50" s="173">
+      <c r="G50" s="170">
         <v>29860</v>
       </c>
-      <c r="H50" s="172">
-        <f>H47+(H51-H47)*2/3</f>
-        <v>0</v>
-      </c>
-      <c r="I50" s="172">
-        <f t="shared" ref="I50:J50" si="47">I47+(I51-I47)*2/3</f>
-        <v>0</v>
-      </c>
-      <c r="J50" s="172">
-        <f t="shared" si="47"/>
+      <c r="H50" s="169">
+        <f>H47+(H51-H47)*3/4</f>
+        <v>0</v>
+      </c>
+      <c r="I50" s="169">
+        <f>I47+(I51-I47)*3/4</f>
+        <v>0</v>
+      </c>
+      <c r="J50" s="169">
+        <f>J47+(J51-J47)*3/4</f>
         <v>0</v>
       </c>
     </row>
@@ -8834,19 +9013,19 @@
       <c r="E51" s="156">
         <v>1416767</v>
       </c>
-      <c r="G51" s="173">
+      <c r="G51" s="170">
         <v>29952</v>
       </c>
-      <c r="H51" s="172">
+      <c r="H51" s="169">
         <f>C15</f>
         <v>0</v>
       </c>
-      <c r="I51" s="172">
-        <f t="shared" ref="I51:J51" si="48">D15</f>
-        <v>0</v>
-      </c>
-      <c r="J51" s="172">
-        <f t="shared" si="48"/>
+      <c r="I51" s="169">
+        <f t="shared" ref="I51:J51" si="24">D15</f>
+        <v>0</v>
+      </c>
+      <c r="J51" s="169">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -8863,19 +9042,19 @@
       <c r="E52" s="157">
         <v>1451505</v>
       </c>
-      <c r="G52" s="173">
+      <c r="G52" s="170">
         <v>30042</v>
       </c>
-      <c r="H52" s="172">
-        <f>H51+(H55-H51)/3</f>
-        <v>0</v>
-      </c>
-      <c r="I52" s="172">
-        <f t="shared" ref="I52:J52" si="49">I51+(I55-I51)/3</f>
-        <v>0</v>
-      </c>
-      <c r="J52" s="172">
-        <f t="shared" si="49"/>
+      <c r="H52" s="169">
+        <f>H51+(H55-H51)/4</f>
+        <v>0</v>
+      </c>
+      <c r="I52" s="169">
+        <f>I51+(I55-I51)/4</f>
+        <v>0</v>
+      </c>
+      <c r="J52" s="169">
+        <f>J51+(J55-J51)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -8892,19 +9071,19 @@
       <c r="E53" s="158">
         <v>1467557</v>
       </c>
-      <c r="G53" s="173">
+      <c r="G53" s="170">
         <v>30133</v>
       </c>
-      <c r="H53" s="172">
+      <c r="H53" s="169">
         <f>H51+(H55-H51)/2</f>
         <v>0</v>
       </c>
-      <c r="I53" s="172">
-        <f t="shared" ref="I53:J53" si="50">I51+(I55-I51)/2</f>
-        <v>0</v>
-      </c>
-      <c r="J53" s="172">
-        <f t="shared" si="50"/>
+      <c r="I53" s="169">
+        <f t="shared" ref="I53:J53" si="25">I51+(I55-I51)/2</f>
+        <v>0</v>
+      </c>
+      <c r="J53" s="169">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -8921,19 +9100,19 @@
       <c r="E54" s="159">
         <v>1558409</v>
       </c>
-      <c r="G54" s="173">
+      <c r="G54" s="170">
         <v>30225</v>
       </c>
-      <c r="H54" s="172">
-        <f>H51+(H55-H51)*2/3</f>
-        <v>0</v>
-      </c>
-      <c r="I54" s="172">
-        <f t="shared" ref="I54:J54" si="51">I51+(I55-I51)*2/3</f>
-        <v>0</v>
-      </c>
-      <c r="J54" s="172">
-        <f t="shared" si="51"/>
+      <c r="H54" s="169">
+        <f>H51+(H55-H51)*3/4</f>
+        <v>0</v>
+      </c>
+      <c r="I54" s="169">
+        <f>I51+(I55-I51)*3/4</f>
+        <v>0</v>
+      </c>
+      <c r="J54" s="169">
+        <f>J51+(J55-J51)*3/4</f>
         <v>0</v>
       </c>
     </row>
@@ -8950,19 +9129,19 @@
       <c r="E55" s="160">
         <v>1705898</v>
       </c>
-      <c r="G55" s="173">
+      <c r="G55" s="170">
         <v>30317</v>
       </c>
-      <c r="H55" s="172">
+      <c r="H55" s="169">
         <f>C16</f>
         <v>0</v>
       </c>
-      <c r="I55" s="172">
-        <f t="shared" ref="I55:J55" si="52">D16</f>
-        <v>0</v>
-      </c>
-      <c r="J55" s="172">
-        <f t="shared" si="52"/>
+      <c r="I55" s="169">
+        <f t="shared" ref="I55:J55" si="26">D16</f>
+        <v>0</v>
+      </c>
+      <c r="J55" s="169">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -8979,19 +9158,19 @@
       <c r="E56" s="161">
         <v>1836337</v>
       </c>
-      <c r="G56" s="173">
+      <c r="G56" s="170">
         <v>30407</v>
       </c>
-      <c r="H56" s="172">
-        <f>H55+(H59-H55)/3</f>
-        <v>0</v>
-      </c>
-      <c r="I56" s="172">
-        <f t="shared" ref="I56:J56" si="53">I55+(I59-I55)/3</f>
-        <v>0</v>
-      </c>
-      <c r="J56" s="172">
-        <f t="shared" si="53"/>
+      <c r="H56" s="169">
+        <f>H55+(H59-H55)/4</f>
+        <v>0</v>
+      </c>
+      <c r="I56" s="169">
+        <f>I55+(I59-I55)/4</f>
+        <v>0</v>
+      </c>
+      <c r="J56" s="169">
+        <f>J55+(J59-J55)/4</f>
         <v>0</v>
       </c>
     </row>
@@ -8999,2712 +9178,2709 @@
       <c r="B57">
         <v>2024</v>
       </c>
-      <c r="C57" s="172">
-        <v>0</v>
-      </c>
-      <c r="D57" s="172">
+      <c r="C57" s="169">
+        <v>0</v>
+      </c>
+      <c r="D57" s="169">
         <v>0</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
-      <c r="G57" s="173">
+      <c r="G57" s="170">
         <v>30498</v>
       </c>
-      <c r="H57" s="172">
+      <c r="H57" s="169">
         <f>H55+(H59-H55)/2</f>
         <v>0</v>
       </c>
-      <c r="I57" s="172">
-        <f t="shared" ref="I57:J57" si="54">I55+(I59-I55)/2</f>
-        <v>0</v>
-      </c>
-      <c r="J57" s="172">
-        <f t="shared" si="54"/>
+      <c r="I57" s="169">
+        <f t="shared" ref="I57:J57" si="27">I55+(I59-I55)/2</f>
+        <v>0</v>
+      </c>
+      <c r="J57" s="169">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="D58" s="172"/>
-      <c r="G58" s="173">
+      <c r="D58" s="169"/>
+      <c r="G58" s="170">
         <v>30590</v>
       </c>
-      <c r="H58" s="172">
-        <f>H55+(H59-H55)*2/3</f>
-        <v>0</v>
-      </c>
-      <c r="I58" s="172">
-        <f t="shared" ref="I58:J58" si="55">I55+(I59-I55)*2/3</f>
-        <v>0</v>
-      </c>
-      <c r="J58" s="172">
-        <f t="shared" si="55"/>
+      <c r="H58" s="169">
+        <f>H55+(H59-H55)*3/4</f>
+        <v>0</v>
+      </c>
+      <c r="I58" s="169">
+        <f>I55+(I59-I55)*3/4</f>
+        <v>0</v>
+      </c>
+      <c r="J58" s="169">
+        <f>J55+(J59-J55)*3/4</f>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="D59" s="172"/>
-      <c r="G59" s="173">
+      <c r="D59" s="169"/>
+      <c r="G59" s="170">
         <v>30682</v>
       </c>
-      <c r="H59" s="172">
+      <c r="H59" s="169">
         <f>C17</f>
         <v>0</v>
       </c>
-      <c r="I59" s="172">
-        <f t="shared" ref="I59:J59" si="56">D17</f>
-        <v>0</v>
-      </c>
-      <c r="J59" s="172">
-        <f t="shared" si="56"/>
+      <c r="I59" s="169">
+        <f t="shared" ref="I59:J59" si="28">D17</f>
+        <v>0</v>
+      </c>
+      <c r="J59" s="169">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="D60" s="172"/>
-      <c r="G60" s="173">
+      <c r="D60" s="169"/>
+      <c r="G60" s="170">
         <v>30773</v>
       </c>
-      <c r="H60" s="172">
-        <f>H59+(H63-H59)/3</f>
-        <v>0</v>
-      </c>
-      <c r="I60" s="172">
-        <f t="shared" ref="I60:J60" si="57">I59+(I63-I59)/3</f>
-        <v>0</v>
-      </c>
-      <c r="J60" s="172">
-        <f t="shared" si="57"/>
+      <c r="H60" s="169">
+        <f>H59+(H63-H59)/4</f>
+        <v>0</v>
+      </c>
+      <c r="I60" s="169">
+        <f>I59+(I63-I59)/4</f>
+        <v>0</v>
+      </c>
+      <c r="J60" s="169">
+        <f>J59+(J63-J59)/4</f>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="D61" s="172"/>
-      <c r="G61" s="173">
+      <c r="D61" s="169"/>
+      <c r="G61" s="170">
         <v>30864</v>
       </c>
-      <c r="H61" s="172">
+      <c r="H61" s="169">
         <f>H59+(H63-H59)/2</f>
         <v>0</v>
       </c>
-      <c r="I61" s="172">
-        <f t="shared" ref="I61:J61" si="58">I59+(I63-I59)/2</f>
-        <v>0</v>
-      </c>
-      <c r="J61" s="172">
-        <f t="shared" si="58"/>
+      <c r="I61" s="169">
+        <f t="shared" ref="I61:J61" si="29">I59+(I63-I59)/2</f>
+        <v>0</v>
+      </c>
+      <c r="J61" s="169">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="D62" s="172"/>
-      <c r="G62" s="173">
+      <c r="D62" s="169"/>
+      <c r="G62" s="170">
         <v>30956</v>
       </c>
-      <c r="H62" s="172">
-        <f>H59+(H63-H59)*2/3</f>
-        <v>0</v>
-      </c>
-      <c r="I62" s="172">
-        <f t="shared" ref="I62:J62" si="59">I59+(I63-I59)*2/3</f>
-        <v>0</v>
-      </c>
-      <c r="J62" s="172">
-        <f t="shared" si="59"/>
+      <c r="H62" s="169">
+        <f>H59+(H63-H59)*3/4</f>
+        <v>0</v>
+      </c>
+      <c r="I62" s="169">
+        <f>I59+(I63-I59)*3/4</f>
+        <v>0</v>
+      </c>
+      <c r="J62" s="169">
+        <f>J59+(J63-J59)*3/4</f>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="D63" s="172"/>
-      <c r="G63" s="173">
+      <c r="D63" s="169"/>
+      <c r="G63" s="170">
         <v>31048</v>
       </c>
-      <c r="H63" s="172">
+      <c r="H63" s="169">
         <f>C18</f>
         <v>0</v>
       </c>
-      <c r="I63" s="172">
-        <f t="shared" ref="I63:J63" si="60">D18</f>
-        <v>0</v>
-      </c>
-      <c r="J63" s="172">
-        <f t="shared" si="60"/>
+      <c r="I63" s="169">
+        <f t="shared" ref="I63:J63" si="30">D18</f>
+        <v>0</v>
+      </c>
+      <c r="J63" s="169">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="D64" s="172"/>
-      <c r="G64" s="173">
+      <c r="D64" s="169"/>
+      <c r="G64" s="170">
         <v>31138</v>
       </c>
-      <c r="H64" s="172">
-        <f>H63+(H67-H63)/3</f>
-        <v>0</v>
-      </c>
-      <c r="I64" s="172">
-        <f t="shared" ref="I64:J64" si="61">I63+(I67-I63)/3</f>
-        <v>0</v>
-      </c>
-      <c r="J64" s="172">
-        <f t="shared" si="61"/>
+      <c r="H64" s="169">
+        <f>H63+(H67-H63)/4</f>
+        <v>0</v>
+      </c>
+      <c r="I64" s="169">
+        <f>I63+(I67-I63)/4</f>
+        <v>0</v>
+      </c>
+      <c r="J64" s="169">
+        <f>J63+(J67-J63)/4</f>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D65" s="172"/>
-      <c r="G65" s="173">
+      <c r="D65" s="169"/>
+      <c r="G65" s="170">
         <v>31229</v>
       </c>
-      <c r="H65" s="172">
+      <c r="H65" s="169">
         <f>H63+(H67-H63)/2</f>
         <v>0</v>
       </c>
-      <c r="I65" s="172">
-        <f t="shared" ref="I65:J65" si="62">I63+(I67-I63)/2</f>
-        <v>0</v>
-      </c>
-      <c r="J65" s="172">
-        <f t="shared" si="62"/>
+      <c r="I65" s="169">
+        <f t="shared" ref="I65:J65" si="31">I63+(I67-I63)/2</f>
+        <v>0</v>
+      </c>
+      <c r="J65" s="169">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D66" s="172"/>
-      <c r="G66" s="173">
+      <c r="D66" s="169"/>
+      <c r="G66" s="170">
         <v>31321</v>
       </c>
-      <c r="H66" s="172">
-        <f>H63+(H67-H63)*2/3</f>
-        <v>0</v>
-      </c>
-      <c r="I66" s="172">
-        <f t="shared" ref="I66:J66" si="63">I63+(I67-I63)*2/3</f>
-        <v>0</v>
-      </c>
-      <c r="J66" s="172">
-        <f t="shared" si="63"/>
+      <c r="H66" s="169">
+        <f>H63+(H67-H63)*3/4</f>
+        <v>0</v>
+      </c>
+      <c r="I66" s="169">
+        <f>I63+(I67-I63)*3/4</f>
+        <v>0</v>
+      </c>
+      <c r="J66" s="169">
+        <f>J63+(J67-J63)*3/4</f>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D67" s="172"/>
-      <c r="G67" s="173">
+      <c r="D67" s="169"/>
+      <c r="G67" s="170">
         <v>31413</v>
       </c>
-      <c r="H67" s="172">
+      <c r="H67" s="169">
         <f>C19</f>
         <v>0</v>
       </c>
-      <c r="I67" s="172">
-        <f t="shared" ref="I67:J67" si="64">D19</f>
-        <v>0</v>
-      </c>
-      <c r="J67" s="172">
-        <f t="shared" si="64"/>
+      <c r="I67" s="169">
+        <f t="shared" ref="I67:J67" si="32">D19</f>
+        <v>0</v>
+      </c>
+      <c r="J67" s="169">
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="G68" s="173">
+      <c r="G68" s="170">
         <v>31503</v>
       </c>
-      <c r="H68" s="172">
-        <f>H67+(H71-H67)/3</f>
-        <v>0</v>
-      </c>
-      <c r="I68" s="172">
-        <f t="shared" ref="I68:J68" si="65">I67+(I71-I67)/3</f>
-        <v>0</v>
-      </c>
-      <c r="J68" s="172">
-        <f t="shared" si="65"/>
+      <c r="H68" s="169">
+        <f>H67+(H71-H67)/4</f>
+        <v>0</v>
+      </c>
+      <c r="I68" s="169">
+        <f>I67+(I71-I67)/4</f>
+        <v>0</v>
+      </c>
+      <c r="J68" s="169">
+        <f>J67+(J71-J67)/4</f>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="G69" s="173">
+      <c r="G69" s="170">
         <v>31594</v>
       </c>
-      <c r="H69" s="172">
+      <c r="H69" s="169">
         <f>H67+(H71-H67)/2</f>
         <v>0</v>
       </c>
-      <c r="I69" s="172">
-        <f t="shared" ref="I69:J69" si="66">I67+(I71-I67)/2</f>
-        <v>0</v>
-      </c>
-      <c r="J69" s="172">
-        <f t="shared" si="66"/>
+      <c r="I69" s="169">
+        <f t="shared" ref="I69:J69" si="33">I67+(I71-I67)/2</f>
+        <v>0</v>
+      </c>
+      <c r="J69" s="169">
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="G70" s="173">
+      <c r="G70" s="170">
         <v>31686</v>
       </c>
-      <c r="H70" s="172">
-        <f>H67+(H71-H67)*2/3</f>
-        <v>0</v>
-      </c>
-      <c r="I70" s="172">
-        <f t="shared" ref="I70:J70" si="67">I67+(I71-I67)*2/3</f>
-        <v>0</v>
-      </c>
-      <c r="J70" s="172">
-        <f t="shared" si="67"/>
+      <c r="H70" s="169">
+        <f>H67+(H71-H67)*3/4</f>
+        <v>0</v>
+      </c>
+      <c r="I70" s="169">
+        <f>I67+(I71-I67)*3/4</f>
+        <v>0</v>
+      </c>
+      <c r="J70" s="169">
+        <f>J67+(J71-J67)*3/4</f>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="G71" s="173">
+      <c r="G71" s="170">
         <v>31778</v>
       </c>
-      <c r="H71" s="172">
+      <c r="H71" s="169">
         <f>C20</f>
         <v>0</v>
       </c>
-      <c r="I71" s="172">
-        <f t="shared" ref="I71:J71" si="68">D20</f>
-        <v>0</v>
-      </c>
-      <c r="J71" s="172">
-        <f t="shared" si="68"/>
+      <c r="I71" s="169">
+        <f t="shared" ref="I71:J71" si="34">D20</f>
+        <v>0</v>
+      </c>
+      <c r="J71" s="169">
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="G72" s="173">
+      <c r="G72" s="170">
         <v>31868</v>
       </c>
-      <c r="H72" s="172">
-        <f>H71+(H75-H71)/3</f>
-        <v>0</v>
-      </c>
-      <c r="I72" s="172">
-        <f t="shared" ref="I72:J72" si="69">I71+(I75-I71)/3</f>
-        <v>0</v>
-      </c>
-      <c r="J72" s="172">
-        <f t="shared" si="69"/>
+      <c r="H72" s="169">
+        <f>H71+(H75-H71)/4</f>
+        <v>0</v>
+      </c>
+      <c r="I72" s="169">
+        <f>I71+(I75-I71)/4</f>
+        <v>0</v>
+      </c>
+      <c r="J72" s="169">
+        <f>J71+(J75-J71)/4</f>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="G73" s="173">
+      <c r="G73" s="170">
         <v>31959</v>
       </c>
-      <c r="H73" s="172">
+      <c r="H73" s="169">
         <f>H71+(H75-H71)/2</f>
         <v>0</v>
       </c>
-      <c r="I73" s="172">
-        <f t="shared" ref="I73:J73" si="70">I71+(I75-I71)/2</f>
-        <v>0</v>
-      </c>
-      <c r="J73" s="172">
-        <f t="shared" si="70"/>
+      <c r="I73" s="169">
+        <f t="shared" ref="I73:J73" si="35">I71+(I75-I71)/2</f>
+        <v>0</v>
+      </c>
+      <c r="J73" s="169">
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="G74" s="173">
+      <c r="G74" s="170">
         <v>32051</v>
       </c>
-      <c r="H74" s="172">
-        <f>H71+(H75-H71)*2/3</f>
-        <v>0</v>
-      </c>
-      <c r="I74" s="172">
-        <f t="shared" ref="I74:J74" si="71">I71+(I75-I71)*2/3</f>
-        <v>0</v>
-      </c>
-      <c r="J74" s="172">
-        <f t="shared" si="71"/>
+      <c r="H74" s="169">
+        <f>H71+(H75-H71)*3/4</f>
+        <v>0</v>
+      </c>
+      <c r="I74" s="169">
+        <f>I71+(I75-I71)*3/4</f>
+        <v>0</v>
+      </c>
+      <c r="J74" s="169">
+        <f>J71+(J75-J71)*3/4</f>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="G75" s="173">
+      <c r="G75" s="170">
         <v>32143</v>
       </c>
-      <c r="H75" s="172">
+      <c r="H75" s="169">
         <f>C21</f>
         <v>0</v>
       </c>
-      <c r="I75" s="172">
-        <f t="shared" ref="I75:J75" si="72">D21</f>
-        <v>0</v>
-      </c>
-      <c r="J75" s="172">
-        <f t="shared" si="72"/>
+      <c r="I75" s="169">
+        <f t="shared" ref="I75:J75" si="36">D21</f>
+        <v>0</v>
+      </c>
+      <c r="J75" s="169">
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="G76" s="173">
+      <c r="G76" s="170">
         <v>32234</v>
       </c>
-      <c r="H76" s="172">
-        <f>H75+(H79-H75)/3</f>
-        <v>0</v>
-      </c>
-      <c r="I76" s="172">
-        <f t="shared" ref="I76:J76" si="73">I75+(I79-I75)/3</f>
-        <v>0</v>
-      </c>
-      <c r="J76" s="172">
-        <f t="shared" si="73"/>
+      <c r="H76" s="169">
+        <f>H75+(H79-H75)/4</f>
+        <v>0</v>
+      </c>
+      <c r="I76" s="169">
+        <f>I75+(I79-I75)/4</f>
+        <v>0</v>
+      </c>
+      <c r="J76" s="169">
+        <f>J75+(J79-J75)/4</f>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="G77" s="173">
+      <c r="G77" s="170">
         <v>32325</v>
       </c>
-      <c r="H77" s="172">
+      <c r="H77" s="169">
         <f>H75+(H79-H75)/2</f>
         <v>0</v>
       </c>
-      <c r="I77" s="172">
-        <f t="shared" ref="I77:J77" si="74">I75+(I79-I75)/2</f>
-        <v>0</v>
-      </c>
-      <c r="J77" s="172">
-        <f t="shared" si="74"/>
+      <c r="I77" s="169">
+        <f t="shared" ref="I77:J77" si="37">I75+(I79-I75)/2</f>
+        <v>0</v>
+      </c>
+      <c r="J77" s="169">
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="G78" s="173">
+      <c r="G78" s="170">
         <v>32417</v>
       </c>
-      <c r="H78" s="172">
-        <f>H75+(H79-H75)*2/3</f>
-        <v>0</v>
-      </c>
-      <c r="I78" s="172">
-        <f t="shared" ref="I78:J78" si="75">I75+(I79-I75)*2/3</f>
-        <v>0</v>
-      </c>
-      <c r="J78" s="172">
-        <f t="shared" si="75"/>
+      <c r="H78" s="169">
+        <f>H75+(H79-H75)*3/4</f>
+        <v>0</v>
+      </c>
+      <c r="I78" s="169">
+        <f>I75+(I79-I75)*3/4</f>
+        <v>0</v>
+      </c>
+      <c r="J78" s="169">
+        <f>J75+(J79-J75)*3/4</f>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="G79" s="173">
+      <c r="G79" s="170">
         <v>32509</v>
       </c>
-      <c r="H79" s="172">
+      <c r="H79" s="169">
         <f>C22</f>
         <v>0</v>
       </c>
-      <c r="I79" s="172">
-        <f t="shared" ref="I79:J79" si="76">D22</f>
-        <v>0</v>
-      </c>
-      <c r="J79" s="172">
-        <f t="shared" si="76"/>
+      <c r="I79" s="169">
+        <f t="shared" ref="I79:J79" si="38">D22</f>
+        <v>0</v>
+      </c>
+      <c r="J79" s="169">
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="G80" s="173">
+      <c r="G80" s="170">
         <v>32599</v>
       </c>
-      <c r="H80" s="172">
-        <f>H79+(H83-H79)/3</f>
-        <v>0</v>
-      </c>
-      <c r="I80" s="172">
-        <f t="shared" ref="I80:J80" si="77">I79+(I83-I79)/3</f>
-        <v>0</v>
-      </c>
-      <c r="J80" s="172">
-        <f t="shared" si="77"/>
+      <c r="H80" s="169">
+        <f>H79+(H83-H79)/4</f>
+        <v>0</v>
+      </c>
+      <c r="I80" s="169">
+        <f>I79+(I83-I79)/4</f>
+        <v>0</v>
+      </c>
+      <c r="J80" s="169">
+        <f>J79+(J83-J79)/4</f>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G81" s="173">
+      <c r="G81" s="170">
         <v>32690</v>
       </c>
-      <c r="H81" s="172">
+      <c r="H81" s="169">
         <f>H79+(H83-H79)/2</f>
         <v>0</v>
       </c>
-      <c r="I81" s="172">
-        <f t="shared" ref="I81:J81" si="78">I79+(I83-I79)/2</f>
-        <v>0</v>
-      </c>
-      <c r="J81" s="172">
-        <f t="shared" si="78"/>
+      <c r="I81" s="169">
+        <f t="shared" ref="I81:J81" si="39">I79+(I83-I79)/2</f>
+        <v>0</v>
+      </c>
+      <c r="J81" s="169">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G82" s="173">
+      <c r="G82" s="170">
         <v>32782</v>
       </c>
-      <c r="H82" s="172">
-        <f>H79+(H83-H79)*2/3</f>
-        <v>0</v>
-      </c>
-      <c r="I82" s="172">
-        <f t="shared" ref="I82:J82" si="79">I79+(I83-I79)*2/3</f>
-        <v>0</v>
-      </c>
-      <c r="J82" s="172">
-        <f t="shared" si="79"/>
+      <c r="H82" s="169">
+        <f>H79+(H83-H79)*3/4</f>
+        <v>0</v>
+      </c>
+      <c r="I82" s="169">
+        <f>I79+(I83-I79)*3/4</f>
+        <v>0</v>
+      </c>
+      <c r="J82" s="169">
+        <f>J79+(J83-J79)*3/4</f>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G83" s="173">
+      <c r="G83" s="170">
         <v>32874</v>
       </c>
-      <c r="H83" s="172">
+      <c r="H83" s="169">
         <f>C23</f>
         <v>0</v>
       </c>
-      <c r="I83" s="172">
-        <f t="shared" ref="I83:J83" si="80">D23</f>
-        <v>0</v>
-      </c>
-      <c r="J83" s="172">
-        <f t="shared" si="80"/>
+      <c r="I83" s="169">
+        <f t="shared" ref="I83:J83" si="40">D23</f>
+        <v>0</v>
+      </c>
+      <c r="J83" s="169">
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G84" s="173">
+      <c r="G84" s="170">
         <v>32964</v>
       </c>
-      <c r="H84" s="172">
-        <f>H83+(H87-H83)/3</f>
-        <v>0</v>
-      </c>
-      <c r="I84" s="172">
-        <f t="shared" ref="I84:J84" si="81">I83+(I87-I83)/3</f>
-        <v>0</v>
-      </c>
-      <c r="J84" s="172">
-        <f t="shared" si="81"/>
+      <c r="H84" s="169">
+        <f>H83+(H87-H83)/4</f>
+        <v>0</v>
+      </c>
+      <c r="I84" s="169">
+        <f>I83+(I87-I83)/4</f>
+        <v>0</v>
+      </c>
+      <c r="J84" s="169">
+        <f>J83+(J87-J83)/4</f>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G85" s="173">
+      <c r="G85" s="170">
         <v>33055</v>
       </c>
-      <c r="H85" s="172">
+      <c r="H85" s="169">
         <f>H83+(H87-H83)/2</f>
         <v>0</v>
       </c>
-      <c r="I85" s="172">
-        <f t="shared" ref="I85:J85" si="82">I83+(I87-I83)/2</f>
-        <v>0</v>
-      </c>
-      <c r="J85" s="172">
-        <f t="shared" si="82"/>
+      <c r="I85" s="169">
+        <f t="shared" ref="I85:J85" si="41">I83+(I87-I83)/2</f>
+        <v>0</v>
+      </c>
+      <c r="J85" s="169">
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G86" s="173">
+      <c r="G86" s="170">
         <v>33147</v>
       </c>
-      <c r="H86" s="172">
-        <f>H83+(H87-H83)*2/3</f>
-        <v>0</v>
-      </c>
-      <c r="I86" s="172">
-        <f t="shared" ref="I86:J86" si="83">I83+(I87-I83)*2/3</f>
-        <v>0</v>
-      </c>
-      <c r="J86" s="172">
-        <f t="shared" si="83"/>
+      <c r="H86" s="169">
+        <f>H83+(H87-H83)*3/4</f>
+        <v>0</v>
+      </c>
+      <c r="I86" s="169">
+        <f>I83+(I87-I83)*3/4</f>
+        <v>0</v>
+      </c>
+      <c r="J86" s="169">
+        <f>J83+(J87-J83)*3/4</f>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G87" s="173">
+      <c r="G87" s="170">
         <v>33239</v>
       </c>
-      <c r="H87" s="172">
+      <c r="H87" s="169">
         <f>C24</f>
         <v>0</v>
       </c>
-      <c r="I87" s="172">
-        <f t="shared" ref="I87:J87" si="84">D24</f>
-        <v>0</v>
-      </c>
-      <c r="J87" s="172">
-        <f t="shared" si="84"/>
+      <c r="I87" s="169">
+        <f t="shared" ref="I87:J87" si="42">D24</f>
+        <v>0</v>
+      </c>
+      <c r="J87" s="169">
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G88" s="173">
+      <c r="G88" s="170">
         <v>33329</v>
       </c>
-      <c r="H88" s="172">
-        <f>H87+(H91-H87)/3</f>
-        <v>0</v>
-      </c>
-      <c r="I88" s="172">
-        <f t="shared" ref="I88:J88" si="85">I87+(I91-I87)/3</f>
-        <v>0</v>
-      </c>
-      <c r="J88" s="172">
-        <f t="shared" si="85"/>
+      <c r="H88" s="169">
+        <f>H87+(H91-H87)/4</f>
+        <v>0</v>
+      </c>
+      <c r="I88" s="169">
+        <f>I87+(I91-I87)/4</f>
+        <v>0</v>
+      </c>
+      <c r="J88" s="169">
+        <f>J87+(J91-J87)/4</f>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G89" s="173">
+      <c r="G89" s="170">
         <v>33420</v>
       </c>
-      <c r="H89" s="172">
+      <c r="H89" s="169">
         <f>H87+(H91-H87)/2</f>
         <v>0</v>
       </c>
-      <c r="I89" s="172">
-        <f t="shared" ref="I89:J89" si="86">I87+(I91-I87)/2</f>
-        <v>0</v>
-      </c>
-      <c r="J89" s="172">
-        <f t="shared" si="86"/>
+      <c r="I89" s="169">
+        <f t="shared" ref="I89:J89" si="43">I87+(I91-I87)/2</f>
+        <v>0</v>
+      </c>
+      <c r="J89" s="169">
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G90" s="173">
+      <c r="G90" s="170">
         <v>33512</v>
       </c>
-      <c r="H90" s="172">
-        <f>H87+(H91-H87)*2/3</f>
-        <v>0</v>
-      </c>
-      <c r="I90" s="172">
-        <f t="shared" ref="I90:J90" si="87">I87+(I91-I87)*2/3</f>
-        <v>0</v>
-      </c>
-      <c r="J90" s="172">
-        <f t="shared" si="87"/>
+      <c r="H90" s="169">
+        <f>H87+(H91-H87)*3/4</f>
+        <v>0</v>
+      </c>
+      <c r="I90" s="169">
+        <f>I87+(I91-I87)*3/4</f>
+        <v>0</v>
+      </c>
+      <c r="J90" s="169">
+        <f>J87+(J91-J87)*3/4</f>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G91" s="173">
+      <c r="G91" s="170">
         <v>33604</v>
       </c>
-      <c r="H91" s="172">
+      <c r="H91" s="169">
         <f>C25</f>
         <v>0</v>
       </c>
-      <c r="I91" s="172">
-        <f t="shared" ref="I91:J91" si="88">D25</f>
-        <v>0</v>
-      </c>
-      <c r="J91" s="172">
-        <f t="shared" si="88"/>
+      <c r="I91" s="169">
+        <f t="shared" ref="I91:J91" si="44">D25</f>
+        <v>0</v>
+      </c>
+      <c r="J91" s="169">
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G92" s="173">
+      <c r="G92" s="170">
         <v>33695</v>
       </c>
-      <c r="H92" s="172">
-        <f>H91+(H95-H91)/3</f>
-        <v>0</v>
-      </c>
-      <c r="I92" s="172">
-        <f t="shared" ref="I92:J92" si="89">I91+(I95-I91)/3</f>
-        <v>0</v>
-      </c>
-      <c r="J92" s="172">
-        <f t="shared" si="89"/>
+      <c r="H92" s="169">
+        <f>H91+(H95-H91)/4</f>
+        <v>0</v>
+      </c>
+      <c r="I92" s="169">
+        <f>I91+(I95-I91)/4</f>
+        <v>0</v>
+      </c>
+      <c r="J92" s="169">
+        <f>J91+(J95-J91)/4</f>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G93" s="173">
+      <c r="G93" s="170">
         <v>33786</v>
       </c>
-      <c r="H93" s="172">
+      <c r="H93" s="169">
         <f>H91+(H95-H91)/2</f>
         <v>0</v>
       </c>
-      <c r="I93" s="172">
-        <f t="shared" ref="I93:J93" si="90">I91+(I95-I91)/2</f>
-        <v>0</v>
-      </c>
-      <c r="J93" s="172">
-        <f t="shared" si="90"/>
+      <c r="I93" s="169">
+        <f t="shared" ref="I93:J93" si="45">I91+(I95-I91)/2</f>
+        <v>0</v>
+      </c>
+      <c r="J93" s="169">
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G94" s="173">
+      <c r="G94" s="170">
         <v>33878</v>
       </c>
-      <c r="H94" s="172">
-        <f>H91+(H95-H91)*2/3</f>
-        <v>0</v>
-      </c>
-      <c r="I94" s="172">
-        <f t="shared" ref="I94:J94" si="91">I91+(I95-I91)*2/3</f>
-        <v>0</v>
-      </c>
-      <c r="J94" s="172">
-        <f t="shared" si="91"/>
+      <c r="H94" s="169">
+        <f>H91+(H95-H91)*3/4</f>
+        <v>0</v>
+      </c>
+      <c r="I94" s="169">
+        <f>I91+(I95-I91)*3/4</f>
+        <v>0</v>
+      </c>
+      <c r="J94" s="169">
+        <f>J91+(J95-J91)*3/4</f>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G95" s="173">
+      <c r="G95" s="170">
         <v>33970</v>
       </c>
-      <c r="H95" s="172">
+      <c r="H95" s="169">
         <f>C26</f>
         <v>0</v>
       </c>
-      <c r="I95" s="172">
-        <f t="shared" ref="I95:J95" si="92">D26</f>
-        <v>0</v>
-      </c>
-      <c r="J95" s="172">
-        <f t="shared" si="92"/>
+      <c r="I95" s="169">
+        <f t="shared" ref="I95:J95" si="46">D26</f>
+        <v>0</v>
+      </c>
+      <c r="J95" s="169">
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G96" s="173">
+      <c r="G96" s="170">
         <v>34060</v>
       </c>
-      <c r="H96" s="172">
-        <f>H95+(H99-H95)/3</f>
-        <v>0</v>
-      </c>
-      <c r="I96" s="172">
-        <f t="shared" ref="I96:J96" si="93">I95+(I99-I95)/3</f>
-        <v>0</v>
-      </c>
-      <c r="J96" s="172">
-        <f t="shared" si="93"/>
+      <c r="H96" s="169">
+        <f>H95+(H99-H95)/4</f>
+        <v>0</v>
+      </c>
+      <c r="I96" s="169">
+        <f>I95+(I99-I95)/4</f>
+        <v>0</v>
+      </c>
+      <c r="J96" s="169">
+        <f>J95+(J99-J95)/4</f>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G97" s="173">
+      <c r="G97" s="170">
         <v>34151</v>
       </c>
-      <c r="H97" s="172">
+      <c r="H97" s="169">
         <f>H95+(H99-H95)/2</f>
         <v>0</v>
       </c>
-      <c r="I97" s="172">
-        <f t="shared" ref="I97:J97" si="94">I95+(I99-I95)/2</f>
-        <v>0</v>
-      </c>
-      <c r="J97" s="172">
-        <f t="shared" si="94"/>
+      <c r="I97" s="169">
+        <f t="shared" ref="I97:J97" si="47">I95+(I99-I95)/2</f>
+        <v>0</v>
+      </c>
+      <c r="J97" s="169">
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G98" s="173">
+      <c r="G98" s="170">
         <v>34243</v>
       </c>
-      <c r="H98" s="172">
-        <f>H95+(H99-H95)*2/3</f>
-        <v>0</v>
-      </c>
-      <c r="I98" s="172">
-        <f t="shared" ref="I98:J98" si="95">I95+(I99-I95)*2/3</f>
-        <v>0</v>
-      </c>
-      <c r="J98" s="172">
-        <f t="shared" si="95"/>
+      <c r="H98" s="169">
+        <f>H95+(H99-H95)*3/4</f>
+        <v>0</v>
+      </c>
+      <c r="I98" s="169">
+        <f>I95+(I99-I95)*3/4</f>
+        <v>0</v>
+      </c>
+      <c r="J98" s="169">
+        <f>J95+(J99-J95)*3/4</f>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G99" s="173">
+      <c r="G99" s="170">
         <v>34335</v>
       </c>
-      <c r="H99" s="172">
+      <c r="H99" s="169">
         <f>C27</f>
         <v>0</v>
       </c>
-      <c r="I99" s="172">
-        <f t="shared" ref="I99:J99" si="96">D27</f>
-        <v>0</v>
-      </c>
-      <c r="J99" s="172">
-        <f t="shared" si="96"/>
+      <c r="I99" s="169">
+        <f t="shared" ref="I99:J99" si="48">D27</f>
+        <v>0</v>
+      </c>
+      <c r="J99" s="169">
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G100" s="173">
+      <c r="G100" s="170">
         <v>34425</v>
       </c>
-      <c r="H100" s="172">
-        <f>H99+(H103-H99)/3</f>
-        <v>384754.5</v>
-      </c>
-      <c r="I100" s="172">
-        <f t="shared" ref="I100:J100" si="97">I99+(I103-I99)/3</f>
-        <v>162904</v>
-      </c>
-      <c r="J100" s="172">
-        <f t="shared" si="97"/>
-        <v>156148.33333333334</v>
+      <c r="H100" s="169">
+        <f>H99+(H103-H99)/4</f>
+        <v>288565.875</v>
+      </c>
+      <c r="I100" s="169">
+        <f>I99+(I103-I99)/4</f>
+        <v>122178</v>
+      </c>
+      <c r="J100" s="169">
+        <f>J99+(J103-J99)/4</f>
+        <v>117111.25</v>
       </c>
     </row>
     <row r="101" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G101" s="173">
+      <c r="G101" s="170">
         <v>34516</v>
       </c>
-      <c r="H101" s="172">
+      <c r="H101" s="169">
         <f>H99+(H103-H99)/2</f>
         <v>577131.75</v>
       </c>
-      <c r="I101" s="172">
-        <f t="shared" ref="I101:J101" si="98">I99+(I103-I99)/2</f>
+      <c r="I101" s="169">
+        <f t="shared" ref="I101:J101" si="49">I99+(I103-I99)/2</f>
         <v>244356</v>
       </c>
-      <c r="J101" s="172">
-        <f t="shared" si="98"/>
+      <c r="J101" s="169">
+        <f t="shared" si="49"/>
         <v>234222.5</v>
       </c>
     </row>
     <row r="102" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G102" s="173">
+      <c r="G102" s="170">
         <v>34608</v>
       </c>
-      <c r="H102" s="172">
-        <f>H99+(H103-H99)*2/3</f>
-        <v>769509</v>
-      </c>
-      <c r="I102" s="172">
-        <f t="shared" ref="I102:J102" si="99">I99+(I103-I99)*2/3</f>
-        <v>325808</v>
-      </c>
-      <c r="J102" s="172">
-        <f t="shared" si="99"/>
-        <v>312296.66666666669</v>
+      <c r="H102" s="169">
+        <f>H99+(H103-H99)*3/4</f>
+        <v>865697.625</v>
+      </c>
+      <c r="I102" s="169">
+        <f>I99+(I103-I99)*3/4</f>
+        <v>366534</v>
+      </c>
+      <c r="J102" s="169">
+        <f>J99+(J103-J99)*3/4</f>
+        <v>351333.75</v>
       </c>
     </row>
     <row r="103" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G103" s="173">
+      <c r="G103" s="170">
         <v>34700</v>
       </c>
-      <c r="H103" s="172">
+      <c r="H103" s="169">
         <f>C28</f>
         <v>1154263.5</v>
       </c>
-      <c r="I103" s="172">
-        <f t="shared" ref="I103:J103" si="100">D28</f>
+      <c r="I103" s="169">
+        <f t="shared" ref="I103:J103" si="50">D28</f>
         <v>488712</v>
       </c>
-      <c r="J103" s="172">
-        <f t="shared" si="100"/>
+      <c r="J103" s="169">
+        <f t="shared" si="50"/>
         <v>468445</v>
       </c>
     </row>
     <row r="104" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G104" s="173">
+      <c r="G104" s="170">
         <v>34790</v>
       </c>
-      <c r="H104" s="172">
-        <f>H103+(H107-H103)/3</f>
-        <v>1170700.8</v>
-      </c>
-      <c r="I104" s="172">
-        <f t="shared" ref="I104:J104" si="101">I103+(I107-I103)/3</f>
-        <v>498348</v>
-      </c>
-      <c r="J104" s="172">
-        <f t="shared" si="101"/>
-        <v>473708.66666666669</v>
+      <c r="H104" s="169">
+        <f>H103+(H107-H103)/4</f>
+        <v>1166591.4750000001</v>
+      </c>
+      <c r="I104" s="169">
+        <f>I103+(I107-I103)/4</f>
+        <v>495939</v>
+      </c>
+      <c r="J104" s="169">
+        <f>J103+(J107-J103)/4</f>
+        <v>472392.75</v>
       </c>
     </row>
     <row r="105" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G105" s="173">
+      <c r="G105" s="170">
         <v>34881</v>
       </c>
-      <c r="H105" s="172">
+      <c r="H105" s="169">
         <f>H103+(H107-H103)/2</f>
         <v>1178919.45</v>
       </c>
-      <c r="I105" s="172">
-        <f t="shared" ref="I105:J105" si="102">I103+(I107-I103)/2</f>
+      <c r="I105" s="169">
+        <f t="shared" ref="I105:J105" si="51">I103+(I107-I103)/2</f>
         <v>503166</v>
       </c>
-      <c r="J105" s="172">
-        <f t="shared" si="102"/>
+      <c r="J105" s="169">
+        <f t="shared" si="51"/>
         <v>476340.5</v>
       </c>
     </row>
     <row r="106" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G106" s="173">
+      <c r="G106" s="170">
         <v>34973</v>
       </c>
-      <c r="H106" s="172">
-        <f>H103+(H107-H103)*2/3</f>
-        <v>1187138.0999999999</v>
-      </c>
-      <c r="I106" s="172">
-        <f t="shared" ref="I106:J106" si="103">I103+(I107-I103)*2/3</f>
-        <v>507984</v>
-      </c>
-      <c r="J106" s="172">
-        <f t="shared" si="103"/>
-        <v>478972.33333333331</v>
+      <c r="H106" s="169">
+        <f>H103+(H107-H103)*3/4</f>
+        <v>1191247.4249999998</v>
+      </c>
+      <c r="I106" s="169">
+        <f>I103+(I107-I103)*3/4</f>
+        <v>510393</v>
+      </c>
+      <c r="J106" s="169">
+        <f>J103+(J107-J103)*3/4</f>
+        <v>480288.25</v>
       </c>
     </row>
     <row r="107" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G107" s="173">
+      <c r="G107" s="170">
         <v>35065</v>
       </c>
-      <c r="H107" s="172">
+      <c r="H107" s="169">
         <f>C29</f>
         <v>1203575.3999999999</v>
       </c>
-      <c r="I107" s="172">
-        <f t="shared" ref="I107:J107" si="104">D29</f>
+      <c r="I107" s="169">
+        <f t="shared" ref="I107:J107" si="52">D29</f>
         <v>517620</v>
       </c>
-      <c r="J107" s="172">
-        <f t="shared" si="104"/>
+      <c r="J107" s="169">
+        <f t="shared" si="52"/>
         <v>484236</v>
       </c>
     </row>
     <row r="108" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G108" s="173">
+      <c r="G108" s="170">
         <v>35156</v>
       </c>
-      <c r="H108" s="172">
-        <f>H107+(H111-H107)/3</f>
-        <v>1221607.8</v>
-      </c>
-      <c r="I108" s="172">
-        <f t="shared" ref="I108:J108" si="105">I107+(I111-I107)/3</f>
-        <v>526785.66666666663</v>
-      </c>
-      <c r="J108" s="172">
-        <f t="shared" si="105"/>
-        <v>492242.33333333331</v>
+      <c r="H108" s="169">
+        <f>H107+(H111-H107)/4</f>
+        <v>1217099.7</v>
+      </c>
+      <c r="I108" s="169">
+        <f>I107+(I111-I107)/4</f>
+        <v>524494.25</v>
+      </c>
+      <c r="J108" s="169">
+        <f>J107+(J111-J107)/4</f>
+        <v>490240.75</v>
       </c>
     </row>
     <row r="109" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G109" s="173">
+      <c r="G109" s="170">
         <v>35247</v>
       </c>
-      <c r="H109" s="172">
+      <c r="H109" s="169">
         <f>H107+(H111-H107)/2</f>
         <v>1230624</v>
       </c>
-      <c r="I109" s="172">
-        <f t="shared" ref="I109:J109" si="106">I107+(I111-I107)/2</f>
+      <c r="I109" s="169">
+        <f t="shared" ref="I109:J109" si="53">I107+(I111-I107)/2</f>
         <v>531368.5</v>
       </c>
-      <c r="J109" s="172">
-        <f t="shared" si="106"/>
+      <c r="J109" s="169">
+        <f t="shared" si="53"/>
         <v>496245.5</v>
       </c>
     </row>
     <row r="110" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G110" s="173">
+      <c r="G110" s="170">
         <v>35339</v>
       </c>
-      <c r="H110" s="172">
-        <f>H107+(H111-H107)*2/3</f>
-        <v>1239640.2</v>
-      </c>
-      <c r="I110" s="172">
-        <f t="shared" ref="I110:J110" si="107">I107+(I111-I107)*2/3</f>
-        <v>535951.33333333337</v>
-      </c>
-      <c r="J110" s="172">
-        <f t="shared" si="107"/>
-        <v>500248.66666666669</v>
+      <c r="H110" s="169">
+        <f>H107+(H111-H107)*3/4</f>
+        <v>1244148.3</v>
+      </c>
+      <c r="I110" s="169">
+        <f>I107+(I111-I107)*3/4</f>
+        <v>538242.75</v>
+      </c>
+      <c r="J110" s="169">
+        <f>J107+(J111-J107)*3/4</f>
+        <v>502250.25</v>
       </c>
     </row>
     <row r="111" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G111" s="173">
+      <c r="G111" s="170">
         <v>35431</v>
       </c>
-      <c r="H111" s="172">
+      <c r="H111" s="169">
         <f>C30</f>
         <v>1257672.6000000001</v>
       </c>
-      <c r="I111" s="172">
-        <f t="shared" ref="I111:J111" si="108">D30</f>
+      <c r="I111" s="169">
+        <f t="shared" ref="I111:J111" si="54">D30</f>
         <v>545117</v>
       </c>
-      <c r="J111" s="172">
-        <f t="shared" si="108"/>
+      <c r="J111" s="169">
+        <f t="shared" si="54"/>
         <v>508255</v>
       </c>
     </row>
     <row r="112" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G112" s="173">
+      <c r="G112" s="170">
         <v>35521</v>
       </c>
-      <c r="H112" s="172">
-        <f>H111+(H115-H111)/3</f>
-        <v>1272393.2666666668</v>
-      </c>
-      <c r="I112" s="172">
-        <f t="shared" ref="I112:J112" si="109">I111+(I115-I111)/3</f>
-        <v>558173.33333333337</v>
-      </c>
-      <c r="J112" s="172">
-        <f t="shared" si="109"/>
-        <v>519475.33333333331</v>
+      <c r="H112" s="169">
+        <f>H111+(H115-H111)/4</f>
+        <v>1268713.1000000001</v>
+      </c>
+      <c r="I112" s="169">
+        <f>I111+(I115-I111)/4</f>
+        <v>554909.25</v>
+      </c>
+      <c r="J112" s="169">
+        <f>J111+(J115-J111)/4</f>
+        <v>516670.25</v>
       </c>
     </row>
     <row r="113" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G113" s="173">
+      <c r="G113" s="170">
         <v>35612</v>
       </c>
-      <c r="H113" s="172">
+      <c r="H113" s="169">
         <f>H111+(H115-H111)/2</f>
         <v>1279753.6000000001</v>
       </c>
-      <c r="I113" s="172">
-        <f t="shared" ref="I113:J113" si="110">I111+(I115-I111)/2</f>
+      <c r="I113" s="169">
+        <f t="shared" ref="I113:J113" si="55">I111+(I115-I111)/2</f>
         <v>564701.5</v>
       </c>
-      <c r="J113" s="172">
-        <f t="shared" si="110"/>
+      <c r="J113" s="169">
+        <f t="shared" si="55"/>
         <v>525085.5</v>
       </c>
     </row>
     <row r="114" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G114" s="173">
+      <c r="G114" s="170">
         <v>35704</v>
       </c>
-      <c r="H114" s="172">
-        <f>H111+(H115-H111)*2/3</f>
-        <v>1287113.9333333333</v>
-      </c>
-      <c r="I114" s="172">
-        <f t="shared" ref="I114:J114" si="111">I111+(I115-I111)*2/3</f>
-        <v>571229.66666666663</v>
-      </c>
-      <c r="J114" s="172">
-        <f t="shared" si="111"/>
-        <v>530695.66666666663</v>
+      <c r="H114" s="169">
+        <f>H111+(H115-H111)*3/4</f>
+        <v>1290794.1000000001</v>
+      </c>
+      <c r="I114" s="169">
+        <f>I111+(I115-I111)*3/4</f>
+        <v>574493.75</v>
+      </c>
+      <c r="J114" s="169">
+        <f>J111+(J115-J111)*3/4</f>
+        <v>533500.75</v>
       </c>
     </row>
     <row r="115" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G115" s="173">
+      <c r="G115" s="170">
         <v>35796</v>
       </c>
-      <c r="H115" s="172">
+      <c r="H115" s="169">
         <f>C31</f>
         <v>1301834.6000000001</v>
       </c>
-      <c r="I115" s="172">
-        <f t="shared" ref="I115:J115" si="112">D31</f>
+      <c r="I115" s="169">
+        <f t="shared" ref="I115:J115" si="56">D31</f>
         <v>584286</v>
       </c>
-      <c r="J115" s="172">
-        <f t="shared" si="112"/>
+      <c r="J115" s="169">
+        <f t="shared" si="56"/>
         <v>541916</v>
       </c>
     </row>
     <row r="116" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G116" s="173">
+      <c r="G116" s="170">
         <v>35886</v>
       </c>
-      <c r="H116" s="172">
-        <f>H115+(H119-H115)/3</f>
-        <v>1314313</v>
-      </c>
-      <c r="I116" s="172">
-        <f t="shared" ref="I116:J116" si="113">I115+(I119-I115)/3</f>
-        <v>605406</v>
-      </c>
-      <c r="J116" s="172">
-        <f t="shared" si="113"/>
-        <v>554684</v>
+      <c r="H116" s="169">
+        <f>H115+(H119-H115)/4</f>
+        <v>1311193.4000000001</v>
+      </c>
+      <c r="I116" s="169">
+        <f>I115+(I119-I115)/4</f>
+        <v>600126</v>
+      </c>
+      <c r="J116" s="169">
+        <f>J115+(J119-J115)/4</f>
+        <v>551492</v>
       </c>
     </row>
     <row r="117" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G117" s="173">
+      <c r="G117" s="170">
         <v>35977</v>
       </c>
-      <c r="H117" s="172">
+      <c r="H117" s="169">
         <f>H115+(H119-H115)/2</f>
         <v>1320552.2000000002</v>
       </c>
-      <c r="I117" s="172">
-        <f t="shared" ref="I117:J117" si="114">I115+(I119-I115)/2</f>
+      <c r="I117" s="169">
+        <f t="shared" ref="I117:J117" si="57">I115+(I119-I115)/2</f>
         <v>615966</v>
       </c>
-      <c r="J117" s="172">
-        <f t="shared" si="114"/>
+      <c r="J117" s="169">
+        <f t="shared" si="57"/>
         <v>561068</v>
       </c>
     </row>
     <row r="118" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G118" s="173">
+      <c r="G118" s="170">
         <v>36069</v>
       </c>
-      <c r="H118" s="172">
-        <f>H115+(H119-H115)*2/3</f>
-        <v>1326791.4000000001</v>
-      </c>
-      <c r="I118" s="172">
-        <f t="shared" ref="I118:J118" si="115">I115+(I119-I115)*2/3</f>
-        <v>626526</v>
-      </c>
-      <c r="J118" s="172">
-        <f t="shared" si="115"/>
-        <v>567452</v>
+      <c r="H118" s="169">
+        <f>H115+(H119-H115)*3/4</f>
+        <v>1329911</v>
+      </c>
+      <c r="I118" s="169">
+        <f>I115+(I119-I115)*3/4</f>
+        <v>631806</v>
+      </c>
+      <c r="J118" s="169">
+        <f>J115+(J119-J115)*3/4</f>
+        <v>570644</v>
       </c>
     </row>
     <row r="119" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G119" s="173">
+      <c r="G119" s="170">
         <v>36161</v>
       </c>
-      <c r="H119" s="172">
+      <c r="H119" s="169">
         <f>C32</f>
         <v>1339269.8</v>
       </c>
-      <c r="I119" s="172">
-        <f t="shared" ref="I119:J119" si="116">D32</f>
+      <c r="I119" s="169">
+        <f t="shared" ref="I119:J119" si="58">D32</f>
         <v>647646</v>
       </c>
-      <c r="J119" s="172">
-        <f t="shared" si="116"/>
+      <c r="J119" s="169">
+        <f t="shared" si="58"/>
         <v>580220</v>
       </c>
     </row>
     <row r="120" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G120" s="173">
+      <c r="G120" s="170">
         <v>36251</v>
       </c>
-      <c r="H120" s="172">
-        <f>H119+(H123-H119)/3</f>
-        <v>1362257.8666666667</v>
-      </c>
-      <c r="I120" s="172">
-        <f t="shared" ref="I120:J120" si="117">I119+(I123-I119)/3</f>
-        <v>672668.33333333337</v>
-      </c>
-      <c r="J120" s="172">
-        <f t="shared" si="117"/>
-        <v>589299</v>
+      <c r="H120" s="169">
+        <f>H119+(H123-H119)/4</f>
+        <v>1356510.85</v>
+      </c>
+      <c r="I120" s="169">
+        <f>I119+(I123-I119)/4</f>
+        <v>666412.75</v>
+      </c>
+      <c r="J120" s="169">
+        <f>J119+(J123-J119)/4</f>
+        <v>587029.25</v>
       </c>
     </row>
     <row r="121" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G121" s="173">
+      <c r="G121" s="170">
         <v>36342</v>
       </c>
-      <c r="H121" s="172">
+      <c r="H121" s="169">
         <f>H119+(H123-H119)/2</f>
         <v>1373751.9</v>
       </c>
-      <c r="I121" s="172">
-        <f t="shared" ref="I121:J121" si="118">I119+(I123-I119)/2</f>
+      <c r="I121" s="169">
+        <f t="shared" ref="I121:J121" si="59">I119+(I123-I119)/2</f>
         <v>685179.5</v>
       </c>
-      <c r="J121" s="172">
-        <f t="shared" si="118"/>
+      <c r="J121" s="169">
+        <f t="shared" si="59"/>
         <v>593838.5</v>
       </c>
     </row>
     <row r="122" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G122" s="173">
+      <c r="G122" s="170">
         <v>36434</v>
       </c>
-      <c r="H122" s="172">
-        <f>H119+(H123-H119)*2/3</f>
-        <v>1385245.9333333333</v>
-      </c>
-      <c r="I122" s="172">
-        <f t="shared" ref="I122:J122" si="119">I119+(I123-I119)*2/3</f>
-        <v>697690.66666666663</v>
-      </c>
-      <c r="J122" s="172">
-        <f t="shared" si="119"/>
-        <v>598378</v>
+      <c r="H122" s="169">
+        <f>H119+(H123-H119)*3/4</f>
+        <v>1390992.95</v>
+      </c>
+      <c r="I122" s="169">
+        <f>I119+(I123-I119)*3/4</f>
+        <v>703946.25</v>
+      </c>
+      <c r="J122" s="169">
+        <f>J119+(J123-J119)*3/4</f>
+        <v>600647.75</v>
       </c>
     </row>
     <row r="123" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G123" s="173">
+      <c r="G123" s="170">
         <v>36526</v>
       </c>
-      <c r="H123" s="172">
+      <c r="H123" s="169">
         <f>C33</f>
         <v>1408234</v>
       </c>
-      <c r="I123" s="172">
-        <f t="shared" ref="I123:J123" si="120">D33</f>
+      <c r="I123" s="169">
+        <f t="shared" ref="I123:J123" si="60">D33</f>
         <v>722713</v>
       </c>
-      <c r="J123" s="172">
-        <f t="shared" si="120"/>
+      <c r="J123" s="169">
+        <f t="shared" si="60"/>
         <v>607457</v>
       </c>
     </row>
     <row r="124" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G124" s="173">
+      <c r="G124" s="170">
         <v>36617</v>
       </c>
-      <c r="H124" s="172">
-        <f>H123+(H127-H123)/3</f>
-        <v>1429051.3</v>
-      </c>
-      <c r="I124" s="172">
-        <f t="shared" ref="I124:J124" si="121">I123+(I127-I123)/3</f>
-        <v>748354.33333333337</v>
-      </c>
-      <c r="J124" s="172">
-        <f t="shared" si="121"/>
-        <v>619115</v>
+      <c r="H124" s="169">
+        <f>H123+(H127-H123)/4</f>
+        <v>1423846.9750000001</v>
+      </c>
+      <c r="I124" s="169">
+        <f>I123+(I127-I123)/4</f>
+        <v>741944</v>
+      </c>
+      <c r="J124" s="169">
+        <f>J123+(J127-J123)/4</f>
+        <v>616200.5</v>
       </c>
     </row>
     <row r="125" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G125" s="173">
+      <c r="G125" s="170">
         <v>36708</v>
       </c>
-      <c r="H125" s="172">
+      <c r="H125" s="169">
         <f>H123+(H127-H123)/2</f>
         <v>1439459.95</v>
       </c>
-      <c r="I125" s="172">
-        <f t="shared" ref="I125:J125" si="122">I123+(I127-I123)/2</f>
+      <c r="I125" s="169">
+        <f t="shared" ref="I125:J125" si="61">I123+(I127-I123)/2</f>
         <v>761175</v>
       </c>
-      <c r="J125" s="172">
-        <f t="shared" si="122"/>
+      <c r="J125" s="169">
+        <f t="shared" si="61"/>
         <v>624944</v>
       </c>
     </row>
     <row r="126" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G126" s="173">
+      <c r="G126" s="170">
         <v>36800</v>
       </c>
-      <c r="H126" s="172">
-        <f>H123+(H127-H123)*2/3</f>
-        <v>1449868.5999999999</v>
-      </c>
-      <c r="I126" s="172">
-        <f t="shared" ref="I126:J126" si="123">I123+(I127-I123)*2/3</f>
-        <v>773995.66666666663</v>
-      </c>
-      <c r="J126" s="172">
-        <f t="shared" si="123"/>
-        <v>630773</v>
+      <c r="H126" s="169">
+        <f>H123+(H127-H123)*3/4</f>
+        <v>1455072.9249999998</v>
+      </c>
+      <c r="I126" s="169">
+        <f>I123+(I127-I123)*3/4</f>
+        <v>780406</v>
+      </c>
+      <c r="J126" s="169">
+        <f>J123+(J127-J123)*3/4</f>
+        <v>633687.5</v>
       </c>
     </row>
     <row r="127" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G127" s="173">
+      <c r="G127" s="170">
         <v>36892</v>
       </c>
-      <c r="H127" s="172">
+      <c r="H127" s="169">
         <f>C34</f>
         <v>1470685.9</v>
       </c>
-      <c r="I127" s="172">
-        <f t="shared" ref="I127:J127" si="124">D34</f>
+      <c r="I127" s="169">
+        <f t="shared" ref="I127:J127" si="62">D34</f>
         <v>799637</v>
       </c>
-      <c r="J127" s="172">
-        <f t="shared" si="124"/>
+      <c r="J127" s="169">
+        <f t="shared" si="62"/>
         <v>642431</v>
       </c>
     </row>
     <row r="128" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G128" s="173">
+      <c r="G128" s="170">
         <v>36982</v>
       </c>
-      <c r="H128" s="172">
-        <f>H127+(H131-H127)/3</f>
-        <v>1497915.1333333333</v>
-      </c>
-      <c r="I128" s="172">
-        <f t="shared" ref="I128:J128" si="125">I127+(I131-I127)/3</f>
-        <v>829785.33333333337</v>
-      </c>
-      <c r="J128" s="172">
-        <f t="shared" si="125"/>
-        <v>659868.33333333337</v>
+      <c r="H128" s="169">
+        <f>H127+(H131-H127)/4</f>
+        <v>1491107.825</v>
+      </c>
+      <c r="I128" s="169">
+        <f>I127+(I131-I127)/4</f>
+        <v>822248.25</v>
+      </c>
+      <c r="J128" s="169">
+        <f>J127+(J131-J127)/4</f>
+        <v>655509</v>
       </c>
     </row>
     <row r="129" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G129" s="173">
+      <c r="G129" s="170">
         <v>37073</v>
       </c>
-      <c r="H129" s="172">
+      <c r="H129" s="169">
         <f>H127+(H131-H127)/2</f>
         <v>1511529.75</v>
       </c>
-      <c r="I129" s="172">
-        <f t="shared" ref="I129:J129" si="126">I127+(I131-I127)/2</f>
+      <c r="I129" s="169">
+        <f t="shared" ref="I129:J129" si="63">I127+(I131-I127)/2</f>
         <v>844859.5</v>
       </c>
-      <c r="J129" s="172">
-        <f t="shared" si="126"/>
+      <c r="J129" s="169">
+        <f t="shared" si="63"/>
         <v>668587</v>
       </c>
     </row>
     <row r="130" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G130" s="173">
+      <c r="G130" s="170">
         <v>37165</v>
       </c>
-      <c r="H130" s="172">
-        <f>H127+(H131-H127)*2/3</f>
-        <v>1525144.3666666667</v>
-      </c>
-      <c r="I130" s="172">
-        <f t="shared" ref="I130:J130" si="127">I127+(I131-I127)*2/3</f>
-        <v>859933.66666666663</v>
-      </c>
-      <c r="J130" s="172">
-        <f t="shared" si="127"/>
-        <v>677305.66666666663</v>
+      <c r="H130" s="169">
+        <f>H127+(H131-H127)*3/4</f>
+        <v>1531951.675</v>
+      </c>
+      <c r="I130" s="169">
+        <f>I127+(I131-I127)*3/4</f>
+        <v>867470.75</v>
+      </c>
+      <c r="J130" s="169">
+        <f>J127+(J131-J127)*3/4</f>
+        <v>681665</v>
       </c>
     </row>
     <row r="131" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G131" s="173">
+      <c r="G131" s="170">
         <v>37257</v>
       </c>
-      <c r="H131" s="172">
+      <c r="H131" s="169">
         <f>C35</f>
         <v>1552373.6</v>
       </c>
-      <c r="I131" s="172">
-        <f t="shared" ref="I131:J131" si="128">D35</f>
+      <c r="I131" s="169">
+        <f t="shared" ref="I131:J131" si="64">D35</f>
         <v>890082</v>
       </c>
-      <c r="J131" s="172">
-        <f t="shared" si="128"/>
+      <c r="J131" s="169">
+        <f t="shared" si="64"/>
         <v>694743</v>
       </c>
     </row>
     <row r="132" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G132" s="173">
+      <c r="G132" s="170">
         <v>37347</v>
       </c>
-      <c r="H132" s="172">
-        <f>H131+(H135-H131)/3</f>
-        <v>1571969.6333333333</v>
-      </c>
-      <c r="I132" s="172">
-        <f t="shared" ref="I132:J132" si="129">I131+(I135-I131)/3</f>
-        <v>926840.66666666663</v>
-      </c>
-      <c r="J132" s="172">
-        <f t="shared" si="129"/>
-        <v>717941.33333333337</v>
+      <c r="H132" s="169">
+        <f>H131+(H135-H131)/4</f>
+        <v>1567070.625</v>
+      </c>
+      <c r="I132" s="169">
+        <f>I131+(I135-I131)/4</f>
+        <v>917651</v>
+      </c>
+      <c r="J132" s="169">
+        <f>J131+(J135-J131)/4</f>
+        <v>712141.75</v>
       </c>
     </row>
     <row r="133" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G133" s="173">
+      <c r="G133" s="170">
         <v>37438</v>
       </c>
-      <c r="H133" s="172">
+      <c r="H133" s="169">
         <f>H131+(H135-H131)/2</f>
         <v>1581767.65</v>
       </c>
-      <c r="I133" s="172">
-        <f t="shared" ref="I133:J133" si="130">I131+(I135-I131)/2</f>
+      <c r="I133" s="169">
+        <f t="shared" ref="I133:J133" si="65">I131+(I135-I131)/2</f>
         <v>945220</v>
       </c>
-      <c r="J133" s="172">
-        <f t="shared" si="130"/>
+      <c r="J133" s="169">
+        <f t="shared" si="65"/>
         <v>729540.5</v>
       </c>
     </row>
     <row r="134" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G134" s="173">
+      <c r="G134" s="170">
         <v>37530</v>
       </c>
-      <c r="H134" s="172">
-        <f>H131+(H135-H131)*2/3</f>
-        <v>1591565.6666666667</v>
-      </c>
-      <c r="I134" s="172">
-        <f t="shared" ref="I134:J134" si="131">I131+(I135-I131)*2/3</f>
-        <v>963599.33333333337</v>
-      </c>
-      <c r="J134" s="172">
-        <f t="shared" si="131"/>
-        <v>741139.66666666663</v>
+      <c r="H134" s="169">
+        <f>H131+(H135-H131)*3/4</f>
+        <v>1596464.675</v>
+      </c>
+      <c r="I134" s="169">
+        <f>I131+(I135-I131)*3/4</f>
+        <v>972789</v>
+      </c>
+      <c r="J134" s="169">
+        <f>J131+(J135-J131)*3/4</f>
+        <v>746939.25</v>
       </c>
     </row>
     <row r="135" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G135" s="173">
+      <c r="G135" s="170">
         <v>37622</v>
       </c>
-      <c r="H135" s="172">
+      <c r="H135" s="169">
         <f>C36</f>
         <v>1611161.7</v>
       </c>
-      <c r="I135" s="172">
-        <f t="shared" ref="I135:J135" si="132">D36</f>
+      <c r="I135" s="169">
+        <f t="shared" ref="I135:J135" si="66">D36</f>
         <v>1000358</v>
       </c>
-      <c r="J135" s="172">
-        <f t="shared" si="132"/>
+      <c r="J135" s="169">
+        <f t="shared" si="66"/>
         <v>764338</v>
       </c>
     </row>
     <row r="136" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G136" s="173">
+      <c r="G136" s="170">
         <v>37712</v>
       </c>
-      <c r="H136" s="172">
-        <f>H135+(H139-H135)/3</f>
-        <v>1639519.8333333333</v>
-      </c>
-      <c r="I136" s="172">
-        <f t="shared" ref="I136:J136" si="133">I135+(I139-I135)/3</f>
-        <v>1042940.6666666666</v>
-      </c>
-      <c r="J136" s="172">
-        <f t="shared" si="133"/>
-        <v>788016</v>
+      <c r="H136" s="169">
+        <f>H135+(H139-H135)/4</f>
+        <v>1632430.3</v>
+      </c>
+      <c r="I136" s="169">
+        <f>I135+(I139-I135)/4</f>
+        <v>1032295</v>
+      </c>
+      <c r="J136" s="169">
+        <f>J135+(J139-J135)/4</f>
+        <v>782096.5</v>
       </c>
     </row>
     <row r="137" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G137" s="173">
+      <c r="G137" s="170">
         <v>37803</v>
       </c>
-      <c r="H137" s="172">
+      <c r="H137" s="169">
         <f>H135+(H139-H135)/2</f>
         <v>1653698.9</v>
       </c>
-      <c r="I137" s="172">
-        <f t="shared" ref="I137:J137" si="134">I135+(I139-I135)/2</f>
+      <c r="I137" s="169">
+        <f t="shared" ref="I137:J137" si="67">I135+(I139-I135)/2</f>
         <v>1064232</v>
       </c>
-      <c r="J137" s="172">
-        <f t="shared" si="134"/>
+      <c r="J137" s="169">
+        <f t="shared" si="67"/>
         <v>799855</v>
       </c>
     </row>
     <row r="138" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G138" s="173">
+      <c r="G138" s="170">
         <v>37895</v>
       </c>
-      <c r="H138" s="172">
-        <f>H135+(H139-H135)*2/3</f>
-        <v>1667877.9666666668</v>
-      </c>
-      <c r="I138" s="172">
-        <f t="shared" ref="I138:J138" si="135">I135+(I139-I135)*2/3</f>
-        <v>1085523.3333333333</v>
-      </c>
-      <c r="J138" s="172">
-        <f t="shared" si="135"/>
-        <v>811694</v>
+      <c r="H138" s="169">
+        <f>H135+(H139-H135)*3/4</f>
+        <v>1674967.5</v>
+      </c>
+      <c r="I138" s="169">
+        <f>I135+(I139-I135)*3/4</f>
+        <v>1096169</v>
+      </c>
+      <c r="J138" s="169">
+        <f>J135+(J139-J135)*3/4</f>
+        <v>817613.5</v>
       </c>
     </row>
     <row r="139" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G139" s="173">
+      <c r="G139" s="170">
         <v>37987</v>
       </c>
-      <c r="H139" s="172">
+      <c r="H139" s="169">
         <f>C37</f>
         <v>1696236.1</v>
       </c>
-      <c r="I139" s="172">
-        <f t="shared" ref="I139:J139" si="136">D37</f>
+      <c r="I139" s="169">
+        <f t="shared" ref="I139:J139" si="68">D37</f>
         <v>1128106</v>
       </c>
-      <c r="J139" s="172">
-        <f t="shared" si="136"/>
+      <c r="J139" s="169">
+        <f t="shared" si="68"/>
         <v>835372</v>
       </c>
     </row>
     <row r="140" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G140" s="173">
+      <c r="G140" s="170">
         <v>38078</v>
       </c>
-      <c r="H140" s="172">
-        <f>H139+(H143-H139)/3</f>
-        <v>1732294.4333333333</v>
-      </c>
-      <c r="I140" s="172">
-        <f t="shared" ref="I140:J140" si="137">I139+(I143-I139)/3</f>
-        <v>1173648.6666666667</v>
-      </c>
-      <c r="J140" s="172">
-        <f t="shared" si="137"/>
-        <v>864012.33333333337</v>
+      <c r="H140" s="169">
+        <f>H139+(H143-H139)/4</f>
+        <v>1723279.85</v>
+      </c>
+      <c r="I140" s="169">
+        <f>I139+(I143-I139)/4</f>
+        <v>1162263</v>
+      </c>
+      <c r="J140" s="169">
+        <f>J139+(J143-J139)/4</f>
+        <v>856852.25</v>
       </c>
     </row>
     <row r="141" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G141" s="173">
+      <c r="G141" s="170">
         <v>38169</v>
       </c>
-      <c r="H141" s="172">
+      <c r="H141" s="169">
         <f>H139+(H143-H139)/2</f>
         <v>1750323.6</v>
       </c>
-      <c r="I141" s="172">
-        <f t="shared" ref="I141:J141" si="138">I139+(I143-I139)/2</f>
+      <c r="I141" s="169">
+        <f t="shared" ref="I141:J141" si="69">I139+(I143-I139)/2</f>
         <v>1196420</v>
       </c>
-      <c r="J141" s="172">
-        <f t="shared" si="138"/>
+      <c r="J141" s="169">
+        <f t="shared" si="69"/>
         <v>878332.5</v>
       </c>
     </row>
     <row r="142" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G142" s="173">
+      <c r="G142" s="170">
         <v>38261</v>
       </c>
-      <c r="H142" s="172">
-        <f>H139+(H143-H139)*2/3</f>
-        <v>1768352.7666666668</v>
-      </c>
-      <c r="I142" s="172">
-        <f t="shared" ref="I142:J142" si="139">I139+(I143-I139)*2/3</f>
-        <v>1219191.3333333333</v>
-      </c>
-      <c r="J142" s="172">
-        <f t="shared" si="139"/>
-        <v>892652.66666666663</v>
+      <c r="H142" s="169">
+        <f>H139+(H143-H139)*3/4</f>
+        <v>1777367.35</v>
+      </c>
+      <c r="I142" s="169">
+        <f>I139+(I143-I139)*3/4</f>
+        <v>1230577</v>
+      </c>
+      <c r="J142" s="169">
+        <f>J139+(J143-J139)*3/4</f>
+        <v>899812.75</v>
       </c>
     </row>
     <row r="143" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G143" s="173">
+      <c r="G143" s="170">
         <v>38353</v>
       </c>
-      <c r="H143" s="172">
+      <c r="H143" s="169">
         <f>C38</f>
         <v>1804411.1</v>
       </c>
-      <c r="I143" s="172">
-        <f t="shared" ref="I143:J143" si="140">D38</f>
+      <c r="I143" s="169">
+        <f t="shared" ref="I143:J143" si="70">D38</f>
         <v>1264734</v>
       </c>
-      <c r="J143" s="172">
-        <f t="shared" si="140"/>
+      <c r="J143" s="169">
+        <f t="shared" si="70"/>
         <v>921293</v>
       </c>
     </row>
     <row r="144" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G144" s="173">
+      <c r="G144" s="170">
         <v>38443</v>
       </c>
-      <c r="H144" s="172">
-        <f>H143+(H147-H143)/3</f>
-        <v>1835777.6</v>
-      </c>
-      <c r="I144" s="172">
-        <f t="shared" ref="I144:J144" si="141">I143+(I147-I143)/3</f>
-        <v>1305588.6666666667</v>
-      </c>
-      <c r="J144" s="172">
-        <f t="shared" si="141"/>
-        <v>944718</v>
+      <c r="H144" s="169">
+        <f>H143+(H147-H143)/4</f>
+        <v>1827935.9750000001</v>
+      </c>
+      <c r="I144" s="169">
+        <f>I143+(I147-I143)/4</f>
+        <v>1295375</v>
+      </c>
+      <c r="J144" s="169">
+        <f>J143+(J147-J143)/4</f>
+        <v>938861.75</v>
       </c>
     </row>
     <row r="145" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G145" s="173">
+      <c r="G145" s="170">
         <v>38534</v>
       </c>
-      <c r="H145" s="172">
+      <c r="H145" s="169">
         <f>H143+(H147-H143)/2</f>
         <v>1851460.85</v>
       </c>
-      <c r="I145" s="172">
-        <f t="shared" ref="I145:J145" si="142">I143+(I147-I143)/2</f>
+      <c r="I145" s="169">
+        <f t="shared" ref="I145:J145" si="71">I143+(I147-I143)/2</f>
         <v>1326016</v>
       </c>
-      <c r="J145" s="172">
-        <f t="shared" si="142"/>
+      <c r="J145" s="169">
+        <f t="shared" si="71"/>
         <v>956430.5</v>
       </c>
     </row>
     <row r="146" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G146" s="173">
+      <c r="G146" s="170">
         <v>38626</v>
       </c>
-      <c r="H146" s="172">
-        <f>H143+(H147-H143)*2/3</f>
-        <v>1867144.1</v>
-      </c>
-      <c r="I146" s="172">
-        <f t="shared" ref="I146:J146" si="143">I143+(I147-I143)*2/3</f>
-        <v>1346443.3333333333</v>
-      </c>
-      <c r="J146" s="172">
-        <f t="shared" si="143"/>
-        <v>968143</v>
+      <c r="H146" s="169">
+        <f>H143+(H147-H143)*3/4</f>
+        <v>1874985.7250000001</v>
+      </c>
+      <c r="I146" s="169">
+        <f>I143+(I147-I143)*3/4</f>
+        <v>1356657</v>
+      </c>
+      <c r="J146" s="169">
+        <f>J143+(J147-J143)*3/4</f>
+        <v>973999.25</v>
       </c>
     </row>
     <row r="147" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G147" s="173">
+      <c r="G147" s="170">
         <v>38718</v>
       </c>
-      <c r="H147" s="172">
+      <c r="H147" s="169">
         <f>C39</f>
         <v>1898510.6</v>
       </c>
-      <c r="I147" s="172">
-        <f t="shared" ref="I147:J147" si="144">D39</f>
+      <c r="I147" s="169">
+        <f t="shared" ref="I147:J147" si="72">D39</f>
         <v>1387298</v>
       </c>
-      <c r="J147" s="172">
-        <f t="shared" si="144"/>
+      <c r="J147" s="169">
+        <f t="shared" si="72"/>
         <v>991568</v>
       </c>
     </row>
     <row r="148" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G148" s="173">
+      <c r="G148" s="170">
         <v>38808</v>
       </c>
-      <c r="H148" s="172">
-        <f>H147+(H151-H147)/3</f>
-        <v>1935849.6666666667</v>
-      </c>
-      <c r="I148" s="172">
-        <f t="shared" ref="I148:J148" si="145">I147+(I151-I147)/3</f>
-        <v>1413057.6666666667</v>
-      </c>
-      <c r="J148" s="172">
-        <f t="shared" si="145"/>
-        <v>1016921.3333333334</v>
+      <c r="H148" s="169">
+        <f>H147+(H151-H147)/4</f>
+        <v>1926514.9000000001</v>
+      </c>
+      <c r="I148" s="169">
+        <f>I147+(I151-I147)/4</f>
+        <v>1406617.75</v>
+      </c>
+      <c r="J148" s="169">
+        <f>J147+(J151-J147)/4</f>
+        <v>1010583</v>
       </c>
     </row>
     <row r="149" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G149" s="173">
+      <c r="G149" s="170">
         <v>38899</v>
       </c>
-      <c r="H149" s="172">
+      <c r="H149" s="169">
         <f>H147+(H151-H147)/2</f>
         <v>1954519.2000000002</v>
       </c>
-      <c r="I149" s="172">
-        <f t="shared" ref="I149:J149" si="146">I147+(I151-I147)/2</f>
+      <c r="I149" s="169">
+        <f t="shared" ref="I149:J149" si="73">I147+(I151-I147)/2</f>
         <v>1425937.5</v>
       </c>
-      <c r="J149" s="172">
-        <f t="shared" si="146"/>
+      <c r="J149" s="169">
+        <f t="shared" si="73"/>
         <v>1029598</v>
       </c>
     </row>
     <row r="150" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G150" s="173">
+      <c r="G150" s="170">
         <v>38991</v>
       </c>
-      <c r="H150" s="172">
-        <f>H147+(H151-H147)*2/3</f>
-        <v>1973188.7333333334</v>
-      </c>
-      <c r="I150" s="172">
-        <f t="shared" ref="I150:J150" si="147">I147+(I151-I147)*2/3</f>
-        <v>1438817.3333333333</v>
-      </c>
-      <c r="J150" s="172">
-        <f t="shared" si="147"/>
-        <v>1042274.6666666666</v>
+      <c r="H150" s="169">
+        <f>H147+(H151-H147)*3/4</f>
+        <v>1982523.5</v>
+      </c>
+      <c r="I150" s="169">
+        <f>I147+(I151-I147)*3/4</f>
+        <v>1445257.25</v>
+      </c>
+      <c r="J150" s="169">
+        <f>J147+(J151-J147)*3/4</f>
+        <v>1048613</v>
       </c>
     </row>
     <row r="151" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G151" s="173">
+      <c r="G151" s="170">
         <v>39083</v>
       </c>
-      <c r="H151" s="172">
+      <c r="H151" s="169">
         <f>C40</f>
         <v>2010527.8</v>
       </c>
-      <c r="I151" s="172">
-        <f t="shared" ref="I151:J151" si="148">D40</f>
+      <c r="I151" s="169">
+        <f t="shared" ref="I151:J151" si="74">D40</f>
         <v>1464577</v>
       </c>
-      <c r="J151" s="172">
-        <f t="shared" si="148"/>
+      <c r="J151" s="169">
+        <f t="shared" si="74"/>
         <v>1067628</v>
       </c>
     </row>
     <row r="152" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G152" s="173">
+      <c r="G152" s="170">
         <v>39173</v>
       </c>
-      <c r="H152" s="172">
-        <f>H151+(H155-H151)/3</f>
-        <v>2044793.5333333334</v>
-      </c>
-      <c r="I152" s="172">
-        <f t="shared" ref="I152:J152" si="149">I151+(I155-I151)/3</f>
-        <v>1464122.6666666667</v>
-      </c>
-      <c r="J152" s="172">
-        <f t="shared" si="149"/>
-        <v>1097389.3333333333</v>
+      <c r="H152" s="169">
+        <f>H151+(H155-H151)/4</f>
+        <v>2036227.1</v>
+      </c>
+      <c r="I152" s="169">
+        <f>I151+(I155-I151)/4</f>
+        <v>1464236.25</v>
+      </c>
+      <c r="J152" s="169">
+        <f>J151+(J155-J151)/4</f>
+        <v>1089949</v>
       </c>
     </row>
     <row r="153" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G153" s="173">
+      <c r="G153" s="170">
         <v>39264</v>
       </c>
-      <c r="H153" s="172">
+      <c r="H153" s="169">
         <f>H151+(H155-H151)/2</f>
         <v>2061926.3999999999</v>
       </c>
-      <c r="I153" s="172">
-        <f t="shared" ref="I153:J153" si="150">I151+(I155-I151)/2</f>
+      <c r="I153" s="169">
+        <f t="shared" ref="I153:J153" si="75">I151+(I155-I151)/2</f>
         <v>1463895.5</v>
       </c>
-      <c r="J153" s="172">
-        <f t="shared" si="150"/>
+      <c r="J153" s="169">
+        <f t="shared" si="75"/>
         <v>1112270</v>
       </c>
     </row>
     <row r="154" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G154" s="173">
+      <c r="G154" s="170">
         <v>39356</v>
       </c>
-      <c r="H154" s="172">
-        <f>H151+(H155-H151)*2/3</f>
-        <v>2079059.2666666666</v>
-      </c>
-      <c r="I154" s="172">
-        <f t="shared" ref="I154:J154" si="151">I151+(I155-I151)*2/3</f>
-        <v>1463668.3333333333</v>
-      </c>
-      <c r="J154" s="172">
-        <f t="shared" si="151"/>
-        <v>1127150.6666666667</v>
+      <c r="H154" s="169">
+        <f>H151+(H155-H151)*3/4</f>
+        <v>2087625.7</v>
+      </c>
+      <c r="I154" s="169">
+        <f>I151+(I155-I151)*3/4</f>
+        <v>1463554.75</v>
+      </c>
+      <c r="J154" s="169">
+        <f>J151+(J155-J151)*3/4</f>
+        <v>1134591</v>
       </c>
     </row>
     <row r="155" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G155" s="173">
+      <c r="G155" s="170">
         <v>39448</v>
       </c>
-      <c r="H155" s="172">
+      <c r="H155" s="169">
         <f>C41</f>
         <v>2113325</v>
       </c>
-      <c r="I155" s="172">
-        <f t="shared" ref="I155:J155" si="152">D41</f>
+      <c r="I155" s="169">
+        <f t="shared" ref="I155:J155" si="76">D41</f>
         <v>1463214</v>
       </c>
-      <c r="J155" s="172">
-        <f t="shared" si="152"/>
+      <c r="J155" s="169">
+        <f t="shared" si="76"/>
         <v>1156912</v>
       </c>
     </row>
     <row r="156" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G156" s="173">
+      <c r="G156" s="170">
         <v>39539</v>
       </c>
-      <c r="H156" s="172">
-        <f>H155+(H159-H155)/3</f>
-        <v>2142715.7999999998</v>
-      </c>
-      <c r="I156" s="172">
-        <f t="shared" ref="I156:J156" si="153">I155+(I159-I155)/3</f>
-        <v>1454271</v>
-      </c>
-      <c r="J156" s="172">
-        <f t="shared" si="153"/>
-        <v>1154510.3333333333</v>
+      <c r="H156" s="169">
+        <f>H155+(H159-H155)/4</f>
+        <v>2135368.1</v>
+      </c>
+      <c r="I156" s="169">
+        <f>I155+(I159-I155)/4</f>
+        <v>1456506.75</v>
+      </c>
+      <c r="J156" s="169">
+        <f>J155+(J159-J155)/4</f>
+        <v>1155110.75</v>
       </c>
     </row>
     <row r="157" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G157" s="173">
+      <c r="G157" s="170">
         <v>39630</v>
       </c>
-      <c r="H157" s="172">
+      <c r="H157" s="169">
         <f>H155+(H159-H155)/2</f>
         <v>2157411.2000000002</v>
       </c>
-      <c r="I157" s="172">
-        <f t="shared" ref="I157:J157" si="154">I155+(I159-I155)/2</f>
+      <c r="I157" s="169">
+        <f t="shared" ref="I157:J157" si="77">I155+(I159-I155)/2</f>
         <v>1449799.5</v>
       </c>
-      <c r="J157" s="172">
-        <f t="shared" si="154"/>
+      <c r="J157" s="169">
+        <f t="shared" si="77"/>
         <v>1153309.5</v>
       </c>
     </row>
     <row r="158" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G158" s="173">
+      <c r="G158" s="170">
         <v>39722</v>
       </c>
-      <c r="H158" s="172">
-        <f>H155+(H159-H155)*2/3</f>
-        <v>2172106.6</v>
-      </c>
-      <c r="I158" s="172">
-        <f t="shared" ref="I158:J158" si="155">I155+(I159-I155)*2/3</f>
-        <v>1445328</v>
-      </c>
-      <c r="J158" s="172">
-        <f t="shared" si="155"/>
-        <v>1152108.6666666667</v>
+      <c r="H158" s="169">
+        <f>H155+(H159-H155)*3/4</f>
+        <v>2179454.2999999998</v>
+      </c>
+      <c r="I158" s="169">
+        <f>I155+(I159-I155)*3/4</f>
+        <v>1443092.25</v>
+      </c>
+      <c r="J158" s="169">
+        <f>J155+(J159-J155)*3/4</f>
+        <v>1151508.25</v>
       </c>
     </row>
     <row r="159" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G159" s="173">
+      <c r="G159" s="170">
         <v>39814</v>
       </c>
-      <c r="H159" s="172">
+      <c r="H159" s="169">
         <f>C42</f>
         <v>2201497.4</v>
       </c>
-      <c r="I159" s="172">
-        <f t="shared" ref="I159:J159" si="156">D42</f>
+      <c r="I159" s="169">
+        <f t="shared" ref="I159:J159" si="78">D42</f>
         <v>1436385</v>
       </c>
-      <c r="J159" s="172">
-        <f t="shared" si="156"/>
+      <c r="J159" s="169">
+        <f t="shared" si="78"/>
         <v>1149707</v>
       </c>
     </row>
     <row r="160" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G160" s="173">
+      <c r="G160" s="170">
         <v>39904</v>
       </c>
-      <c r="H160" s="172">
-        <f>H159+(H163-H159)/3</f>
-        <v>2226816.1666666665</v>
-      </c>
-      <c r="I160" s="172">
-        <f t="shared" ref="I160:J160" si="157">I159+(I163-I159)/3</f>
-        <v>1424182.3333333333</v>
-      </c>
-      <c r="J160" s="172">
-        <f t="shared" si="157"/>
-        <v>1150044.3333333333</v>
+      <c r="H160" s="169">
+        <f>H159+(H163-H159)/4</f>
+        <v>2220486.4750000001</v>
+      </c>
+      <c r="I160" s="169">
+        <f>I159+(I163-I159)/4</f>
+        <v>1427233</v>
+      </c>
+      <c r="J160" s="169">
+        <f>J159+(J163-J159)/4</f>
+        <v>1149960</v>
       </c>
     </row>
     <row r="161" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G161" s="173">
+      <c r="G161" s="170">
         <v>39995</v>
       </c>
-      <c r="H161" s="172">
+      <c r="H161" s="169">
         <f>H159+(H163-H159)/2</f>
         <v>2239475.5499999998</v>
       </c>
-      <c r="I161" s="172">
-        <f t="shared" ref="I161:J161" si="158">I159+(I163-I159)/2</f>
+      <c r="I161" s="169">
+        <f t="shared" ref="I161:J161" si="79">I159+(I163-I159)/2</f>
         <v>1418081</v>
       </c>
-      <c r="J161" s="172">
-        <f t="shared" si="158"/>
+      <c r="J161" s="169">
+        <f t="shared" si="79"/>
         <v>1150213</v>
       </c>
     </row>
     <row r="162" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G162" s="173">
+      <c r="G162" s="170">
         <v>40087</v>
       </c>
-      <c r="H162" s="172">
-        <f>H159+(H163-H159)*2/3</f>
-        <v>2252134.9333333336</v>
-      </c>
-      <c r="I162" s="172">
-        <f t="shared" ref="I162:J162" si="159">I159+(I163-I159)*2/3</f>
-        <v>1411979.6666666667</v>
-      </c>
-      <c r="J162" s="172">
-        <f t="shared" si="159"/>
-        <v>1150381.6666666667</v>
+      <c r="H162" s="169">
+        <f>H159+(H163-H159)*3/4</f>
+        <v>2258464.625</v>
+      </c>
+      <c r="I162" s="169">
+        <f>I159+(I163-I159)*3/4</f>
+        <v>1408929</v>
+      </c>
+      <c r="J162" s="169">
+        <f>J159+(J163-J159)*3/4</f>
+        <v>1150466</v>
       </c>
     </row>
     <row r="163" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G163" s="173">
+      <c r="G163" s="170">
         <v>40179</v>
       </c>
-      <c r="H163" s="172">
+      <c r="H163" s="169">
         <f>C43</f>
         <v>2277453.7000000002</v>
       </c>
-      <c r="I163" s="172">
-        <f t="shared" ref="I163:J163" si="160">D43</f>
+      <c r="I163" s="169">
+        <f t="shared" ref="I163:J163" si="80">D43</f>
         <v>1399777</v>
       </c>
-      <c r="J163" s="172">
-        <f t="shared" si="160"/>
+      <c r="J163" s="169">
+        <f t="shared" si="80"/>
         <v>1150719</v>
       </c>
     </row>
     <row r="164" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G164" s="173">
+      <c r="G164" s="170">
         <v>40269</v>
       </c>
-      <c r="H164" s="172">
-        <f>H163+(H167-H163)/3</f>
-        <v>2311652.7333333334</v>
-      </c>
-      <c r="I164" s="172">
-        <f t="shared" ref="I164:J164" si="161">I163+(I167-I163)/3</f>
-        <v>1360781</v>
-      </c>
-      <c r="J164" s="172">
-        <f t="shared" si="161"/>
-        <v>1161765.3333333333</v>
+      <c r="H164" s="169">
+        <f>H163+(H167-H163)/4</f>
+        <v>2303102.9750000001</v>
+      </c>
+      <c r="I164" s="169">
+        <f>I163+(I167-I163)/4</f>
+        <v>1370530</v>
+      </c>
+      <c r="J164" s="169">
+        <f>J163+(J167-J163)/4</f>
+        <v>1159003.75</v>
       </c>
     </row>
     <row r="165" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G165" s="173">
+      <c r="G165" s="170">
         <v>40360</v>
       </c>
-      <c r="H165" s="172">
+      <c r="H165" s="169">
         <f>H163+(H167-H163)/2</f>
         <v>2328752.25</v>
       </c>
-      <c r="I165" s="172">
-        <f t="shared" ref="I165:J165" si="162">I163+(I167-I163)/2</f>
+      <c r="I165" s="169">
+        <f t="shared" ref="I165:J165" si="81">I163+(I167-I163)/2</f>
         <v>1341283</v>
       </c>
-      <c r="J165" s="172">
-        <f t="shared" si="162"/>
+      <c r="J165" s="169">
+        <f t="shared" si="81"/>
         <v>1167288.5</v>
       </c>
     </row>
     <row r="166" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G166" s="173">
+      <c r="G166" s="170">
         <v>40452</v>
       </c>
-      <c r="H166" s="172">
-        <f>H163+(H167-H163)*2/3</f>
-        <v>2345851.7666666666</v>
-      </c>
-      <c r="I166" s="172">
-        <f t="shared" ref="I166:J166" si="163">I163+(I167-I163)*2/3</f>
-        <v>1321785</v>
-      </c>
-      <c r="J166" s="172">
-        <f t="shared" si="163"/>
-        <v>1172811.6666666667</v>
+      <c r="H166" s="169">
+        <f>H163+(H167-H163)*3/4</f>
+        <v>2354401.5249999999</v>
+      </c>
+      <c r="I166" s="169">
+        <f>I163+(I167-I163)*3/4</f>
+        <v>1312036</v>
+      </c>
+      <c r="J166" s="169">
+        <f>J163+(J167-J163)*3/4</f>
+        <v>1175573.25</v>
       </c>
     </row>
     <row r="167" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G167" s="173">
+      <c r="G167" s="170">
         <v>40544</v>
       </c>
-      <c r="H167" s="172">
+      <c r="H167" s="169">
         <f>C44</f>
         <v>2380050.7999999998</v>
       </c>
-      <c r="I167" s="172">
-        <f t="shared" ref="I167:J167" si="164">D44</f>
+      <c r="I167" s="169">
+        <f t="shared" ref="I167:J167" si="82">D44</f>
         <v>1282789</v>
       </c>
-      <c r="J167" s="172">
-        <f t="shared" si="164"/>
+      <c r="J167" s="169">
+        <f t="shared" si="82"/>
         <v>1183858</v>
       </c>
     </row>
     <row r="168" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G168" s="173">
+      <c r="G168" s="170">
         <v>40634</v>
       </c>
-      <c r="H168" s="172">
-        <f>H167+(H171-H167)/3</f>
-        <v>2397731.1333333333</v>
-      </c>
-      <c r="I168" s="172">
-        <f t="shared" ref="I168:J168" si="165">I167+(I171-I167)/3</f>
-        <v>1237825.6666666667</v>
-      </c>
-      <c r="J168" s="172">
-        <f t="shared" si="165"/>
-        <v>1194330</v>
+      <c r="H168" s="169">
+        <f>H167+(H171-H167)/4</f>
+        <v>2393311.0499999998</v>
+      </c>
+      <c r="I168" s="169">
+        <f>I167+(I171-I167)/4</f>
+        <v>1249066.5</v>
+      </c>
+      <c r="J168" s="169">
+        <f>J167+(J171-J167)/4</f>
+        <v>1191712</v>
       </c>
     </row>
     <row r="169" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G169" s="173">
+      <c r="G169" s="170">
         <v>40725</v>
       </c>
-      <c r="H169" s="172">
+      <c r="H169" s="169">
         <f>H167+(H171-H167)/2</f>
         <v>2406571.2999999998</v>
       </c>
-      <c r="I169" s="172">
-        <f t="shared" ref="I169:J169" si="166">I167+(I171-I167)/2</f>
+      <c r="I169" s="169">
+        <f t="shared" ref="I169:J169" si="83">I167+(I171-I167)/2</f>
         <v>1215344</v>
       </c>
-      <c r="J169" s="172">
-        <f t="shared" si="166"/>
+      <c r="J169" s="169">
+        <f t="shared" si="83"/>
         <v>1199566</v>
       </c>
     </row>
     <row r="170" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G170" s="173">
+      <c r="G170" s="170">
         <v>40817</v>
       </c>
-      <c r="H170" s="172">
-        <f>H167+(H171-H167)*2/3</f>
-        <v>2415411.4666666663</v>
-      </c>
-      <c r="I170" s="172">
-        <f t="shared" ref="I170:J170" si="167">I167+(I171-I167)*2/3</f>
-        <v>1192862.3333333333</v>
-      </c>
-      <c r="J170" s="172">
-        <f t="shared" si="167"/>
-        <v>1204802</v>
+      <c r="H170" s="169">
+        <f>H167+(H171-H167)*3/4</f>
+        <v>2419831.5499999998</v>
+      </c>
+      <c r="I170" s="169">
+        <f>I167+(I171-I167)*3/4</f>
+        <v>1181621.5</v>
+      </c>
+      <c r="J170" s="169">
+        <f>J167+(J171-J167)*3/4</f>
+        <v>1207420</v>
       </c>
     </row>
     <row r="171" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G171" s="173">
+      <c r="G171" s="170">
         <v>40909</v>
       </c>
-      <c r="H171" s="172">
+      <c r="H171" s="169">
         <f>C45</f>
         <v>2433091.7999999998</v>
       </c>
-      <c r="I171" s="172">
-        <f t="shared" ref="I171:J171" si="168">D45</f>
+      <c r="I171" s="169">
+        <f t="shared" ref="I171:J171" si="84">D45</f>
         <v>1147899</v>
       </c>
-      <c r="J171" s="172">
-        <f t="shared" si="168"/>
+      <c r="J171" s="169">
+        <f t="shared" si="84"/>
         <v>1215274</v>
       </c>
     </row>
     <row r="172" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G172" s="173">
+      <c r="G172" s="170">
         <v>41000</v>
       </c>
-      <c r="H172" s="172">
-        <f>H171+(H175-H171)/3</f>
-        <v>2439826.6333333333</v>
-      </c>
-      <c r="I172" s="172">
-        <f t="shared" ref="I172:J172" si="169">I171+(I175-I171)/3</f>
-        <v>1128594.3333333333</v>
-      </c>
-      <c r="J172" s="172">
-        <f t="shared" si="169"/>
-        <v>1224921</v>
+      <c r="H172" s="169">
+        <f>H171+(H175-H171)/4</f>
+        <v>2438142.9249999998</v>
+      </c>
+      <c r="I172" s="169">
+        <f>I171+(I175-I171)/4</f>
+        <v>1133420.5</v>
+      </c>
+      <c r="J172" s="169">
+        <f>J171+(J175-J171)/4</f>
+        <v>1222509.25</v>
       </c>
     </row>
     <row r="173" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G173" s="173">
+      <c r="G173" s="170">
         <v>41091</v>
       </c>
-      <c r="H173" s="172">
+      <c r="H173" s="169">
         <f>H171+(H175-H171)/2</f>
         <v>2443194.0499999998</v>
       </c>
-      <c r="I173" s="172">
-        <f t="shared" ref="I173:J173" si="170">I171+(I175-I171)/2</f>
+      <c r="I173" s="169">
+        <f t="shared" ref="I173:J173" si="85">I171+(I175-I171)/2</f>
         <v>1118942</v>
       </c>
-      <c r="J173" s="172">
-        <f t="shared" si="170"/>
+      <c r="J173" s="169">
+        <f t="shared" si="85"/>
         <v>1229744.5</v>
       </c>
     </row>
     <row r="174" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G174" s="173">
+      <c r="G174" s="170">
         <v>41183</v>
       </c>
-      <c r="H174" s="172">
-        <f>H171+(H175-H171)*2/3</f>
-        <v>2446561.4666666663</v>
-      </c>
-      <c r="I174" s="172">
-        <f t="shared" ref="I174:J174" si="171">I171+(I175-I171)*2/3</f>
-        <v>1109289.6666666667</v>
-      </c>
-      <c r="J174" s="172">
-        <f t="shared" si="171"/>
-        <v>1234568</v>
+      <c r="H174" s="169">
+        <f>H171+(H175-H171)*3/4</f>
+        <v>2448245.1749999998</v>
+      </c>
+      <c r="I174" s="169">
+        <f>I171+(I175-I171)*3/4</f>
+        <v>1104463.5</v>
+      </c>
+      <c r="J174" s="169">
+        <f>J171+(J175-J171)*3/4</f>
+        <v>1236979.75</v>
       </c>
     </row>
     <row r="175" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G175" s="173">
+      <c r="G175" s="170">
         <v>41275</v>
       </c>
-      <c r="H175" s="172">
+      <c r="H175" s="169">
         <f>C46</f>
         <v>2453296.2999999998</v>
       </c>
-      <c r="I175" s="172">
-        <f t="shared" ref="I175:J175" si="172">D46</f>
+      <c r="I175" s="169">
+        <f t="shared" ref="I175:J175" si="86">D46</f>
         <v>1089985</v>
       </c>
-      <c r="J175" s="172">
-        <f t="shared" si="172"/>
+      <c r="J175" s="169">
+        <f t="shared" si="86"/>
         <v>1244215</v>
       </c>
     </row>
     <row r="176" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G176" s="173">
+      <c r="G176" s="170">
         <v>41365</v>
       </c>
-      <c r="H176" s="172">
-        <f>H175+(H179-H175)/3</f>
-        <v>2456005.1999999997</v>
-      </c>
-      <c r="I176" s="172">
-        <f t="shared" ref="I176:J176" si="173">I175+(I179-I175)/3</f>
-        <v>1098338.3333333333</v>
-      </c>
-      <c r="J176" s="172">
-        <f t="shared" si="173"/>
-        <v>1251137.3333333333</v>
+      <c r="H176" s="169">
+        <f>H175+(H179-H175)/4</f>
+        <v>2455327.9749999996</v>
+      </c>
+      <c r="I176" s="169">
+        <f>I175+(I179-I175)/4</f>
+        <v>1096250</v>
+      </c>
+      <c r="J176" s="169">
+        <f>J175+(J179-J175)/4</f>
+        <v>1249406.75</v>
       </c>
     </row>
     <row r="177" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G177" s="173">
+      <c r="G177" s="170">
         <v>41456</v>
       </c>
-      <c r="H177" s="172">
+      <c r="H177" s="169">
         <f>H175+(H179-H175)/2</f>
         <v>2457359.65</v>
       </c>
-      <c r="I177" s="172">
-        <f t="shared" ref="I177:J177" si="174">I175+(I179-I175)/2</f>
+      <c r="I177" s="169">
+        <f t="shared" ref="I177:J177" si="87">I175+(I179-I175)/2</f>
         <v>1102515</v>
       </c>
-      <c r="J177" s="172">
-        <f t="shared" si="174"/>
+      <c r="J177" s="169">
+        <f t="shared" si="87"/>
         <v>1254598.5</v>
       </c>
     </row>
     <row r="178" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G178" s="173">
+      <c r="G178" s="170">
         <v>41548</v>
       </c>
-      <c r="H178" s="172">
-        <f>H175+(H179-H175)*2/3</f>
-        <v>2458714.1</v>
-      </c>
-      <c r="I178" s="172">
-        <f t="shared" ref="I178:J178" si="175">I175+(I179-I175)*2/3</f>
-        <v>1106691.6666666667</v>
-      </c>
-      <c r="J178" s="172">
-        <f t="shared" si="175"/>
-        <v>1258059.6666666667</v>
+      <c r="H178" s="169">
+        <f>H175+(H179-H175)*3/4</f>
+        <v>2459391.3250000002</v>
+      </c>
+      <c r="I178" s="169">
+        <f>I175+(I179-I175)*3/4</f>
+        <v>1108780</v>
+      </c>
+      <c r="J178" s="169">
+        <f>J175+(J179-J175)*3/4</f>
+        <v>1259790.25</v>
       </c>
     </row>
     <row r="179" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G179" s="173">
+      <c r="G179" s="170">
         <v>41640</v>
       </c>
-      <c r="H179" s="172">
+      <c r="H179" s="169">
         <f>C47</f>
         <v>2461423</v>
       </c>
-      <c r="I179" s="172">
-        <f t="shared" ref="I179:J179" si="176">D47</f>
+      <c r="I179" s="169">
+        <f t="shared" ref="I179:J179" si="88">D47</f>
         <v>1115045</v>
       </c>
-      <c r="J179" s="172">
-        <f t="shared" si="176"/>
+      <c r="J179" s="169">
+        <f t="shared" si="88"/>
         <v>1264982</v>
       </c>
     </row>
     <row r="180" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G180" s="173">
+      <c r="G180" s="170">
         <v>41730</v>
       </c>
-      <c r="H180" s="172">
-        <f>H179+(H183-H179)/3</f>
-        <v>2467023.8333333335</v>
-      </c>
-      <c r="I180" s="172">
-        <f t="shared" ref="I180:J180" si="177">I179+(I183-I179)/3</f>
-        <v>1126948.3333333333</v>
-      </c>
-      <c r="J180" s="172">
-        <f t="shared" si="177"/>
-        <v>1265935.6666666667</v>
+      <c r="H180" s="169">
+        <f>H179+(H183-H179)/4</f>
+        <v>2465623.625</v>
+      </c>
+      <c r="I180" s="169">
+        <f>I179+(I183-I179)/4</f>
+        <v>1123972.5</v>
+      </c>
+      <c r="J180" s="169">
+        <f>J179+(J183-J179)/4</f>
+        <v>1265697.25</v>
       </c>
     </row>
     <row r="181" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G181" s="173">
+      <c r="G181" s="170">
         <v>41821</v>
       </c>
-      <c r="H181" s="172">
+      <c r="H181" s="169">
         <f>H179+(H183-H179)/2</f>
         <v>2469824.25</v>
       </c>
-      <c r="I181" s="172">
-        <f t="shared" ref="I181:J181" si="178">I179+(I183-I179)/2</f>
+      <c r="I181" s="169">
+        <f t="shared" ref="I181:J181" si="89">I179+(I183-I179)/2</f>
         <v>1132900</v>
       </c>
-      <c r="J181" s="172">
-        <f t="shared" si="178"/>
+      <c r="J181" s="169">
+        <f t="shared" si="89"/>
         <v>1266412.5</v>
       </c>
     </row>
     <row r="182" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G182" s="173">
+      <c r="G182" s="170">
         <v>41913</v>
       </c>
-      <c r="H182" s="172">
-        <f>H179+(H183-H179)*2/3</f>
-        <v>2472624.6666666665</v>
-      </c>
-      <c r="I182" s="172">
-        <f t="shared" ref="I182:J182" si="179">I179+(I183-I179)*2/3</f>
-        <v>1138851.6666666667</v>
-      </c>
-      <c r="J182" s="172">
-        <f t="shared" si="179"/>
-        <v>1266889.3333333333</v>
+      <c r="H182" s="169">
+        <f>H179+(H183-H179)*3/4</f>
+        <v>2474024.875</v>
+      </c>
+      <c r="I182" s="169">
+        <f>I179+(I183-I179)*3/4</f>
+        <v>1141827.5</v>
+      </c>
+      <c r="J182" s="169">
+        <f>J179+(J183-J179)*3/4</f>
+        <v>1267127.75</v>
       </c>
     </row>
     <row r="183" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G183" s="173">
+      <c r="G183" s="170">
         <v>42005</v>
       </c>
-      <c r="H183" s="172">
+      <c r="H183" s="169">
         <f>C48</f>
         <v>2478225.5</v>
       </c>
-      <c r="I183" s="172">
-        <f t="shared" ref="I183:J183" si="180">D48</f>
+      <c r="I183" s="169">
+        <f t="shared" ref="I183:J183" si="90">D48</f>
         <v>1150755</v>
       </c>
-      <c r="J183" s="172">
-        <f t="shared" si="180"/>
+      <c r="J183" s="169">
+        <f t="shared" si="90"/>
         <v>1267843</v>
       </c>
     </row>
     <row r="184" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G184" s="173">
+      <c r="G184" s="170">
         <v>42095</v>
       </c>
-      <c r="H184" s="172">
-        <f>H183+(H187-H183)/3</f>
-        <v>2486696.4</v>
-      </c>
-      <c r="I184" s="172">
-        <f t="shared" ref="I184:J184" si="181">I183+(I187-I183)/3</f>
-        <v>1157733.6666666667</v>
-      </c>
-      <c r="J184" s="172">
-        <f t="shared" si="181"/>
-        <v>1282227.3333333333</v>
+      <c r="H184" s="169">
+        <f>H183+(H187-H183)/4</f>
+        <v>2484578.6749999998</v>
+      </c>
+      <c r="I184" s="169">
+        <f>I183+(I187-I183)/4</f>
+        <v>1155989</v>
+      </c>
+      <c r="J184" s="169">
+        <f>J183+(J187-J183)/4</f>
+        <v>1278631.25</v>
       </c>
     </row>
     <row r="185" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G185" s="173">
+      <c r="G185" s="170">
         <v>42186</v>
       </c>
-      <c r="H185" s="172">
+      <c r="H185" s="169">
         <f>H183+(H187-H183)/2</f>
         <v>2490931.85</v>
       </c>
-      <c r="I185" s="172">
-        <f t="shared" ref="I185:J185" si="182">I183+(I187-I183)/2</f>
+      <c r="I185" s="169">
+        <f t="shared" ref="I185:J185" si="91">I183+(I187-I183)/2</f>
         <v>1161223</v>
       </c>
-      <c r="J185" s="172">
-        <f t="shared" si="182"/>
+      <c r="J185" s="169">
+        <f t="shared" si="91"/>
         <v>1289419.5</v>
       </c>
     </row>
     <row r="186" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G186" s="173">
+      <c r="G186" s="170">
         <v>42278</v>
       </c>
-      <c r="H186" s="172">
-        <f>H183+(H187-H183)*2/3</f>
-        <v>2495167.3000000003</v>
-      </c>
-      <c r="I186" s="172">
-        <f t="shared" ref="I186:J186" si="183">I183+(I187-I183)*2/3</f>
-        <v>1164712.3333333333</v>
-      </c>
-      <c r="J186" s="172">
-        <f t="shared" si="183"/>
-        <v>1296611.6666666667</v>
+      <c r="H186" s="169">
+        <f>H183+(H187-H183)*3/4</f>
+        <v>2497285.0250000004</v>
+      </c>
+      <c r="I186" s="169">
+        <f>I183+(I187-I183)*3/4</f>
+        <v>1166457</v>
+      </c>
+      <c r="J186" s="169">
+        <f>J183+(J187-J183)*3/4</f>
+        <v>1300207.75</v>
       </c>
     </row>
     <row r="187" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G187" s="173">
+      <c r="G187" s="170">
         <v>42370</v>
       </c>
-      <c r="H187" s="172">
+      <c r="H187" s="169">
         <f>C49</f>
         <v>2503638.2000000002</v>
       </c>
-      <c r="I187" s="172">
-        <f t="shared" ref="I187:J187" si="184">D49</f>
+      <c r="I187" s="169">
+        <f t="shared" ref="I187:J187" si="92">D49</f>
         <v>1171691</v>
       </c>
-      <c r="J187" s="172">
-        <f t="shared" si="184"/>
+      <c r="J187" s="169">
+        <f t="shared" si="92"/>
         <v>1310996</v>
       </c>
     </row>
     <row r="188" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G188" s="173">
+      <c r="G188" s="170">
         <v>42461</v>
       </c>
-      <c r="H188" s="172">
-        <f>H187+(H191-H187)/3</f>
-        <v>2512060</v>
-      </c>
-      <c r="I188" s="172">
-        <f t="shared" ref="I188:J188" si="185">I187+(I191-I187)/3</f>
-        <v>1177267.3333333333</v>
-      </c>
-      <c r="J188" s="172">
-        <f t="shared" si="185"/>
-        <v>1328698</v>
+      <c r="H188" s="169">
+        <f>H187+(H191-H187)/4</f>
+        <v>2509954.5500000003</v>
+      </c>
+      <c r="I188" s="169">
+        <f>I187+(I191-I187)/4</f>
+        <v>1175873.25</v>
+      </c>
+      <c r="J188" s="169">
+        <f>J187+(J191-J187)/4</f>
+        <v>1324272.5</v>
       </c>
     </row>
     <row r="189" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G189" s="173">
+      <c r="G189" s="170">
         <v>42552</v>
       </c>
-      <c r="H189" s="172">
+      <c r="H189" s="169">
         <f>H187+(H191-H187)/2</f>
         <v>2516270.9000000004</v>
       </c>
-      <c r="I189" s="172">
-        <f t="shared" ref="I189:J189" si="186">I187+(I191-I187)/2</f>
+      <c r="I189" s="169">
+        <f t="shared" ref="I189:J189" si="93">I187+(I191-I187)/2</f>
         <v>1180055.5</v>
       </c>
-      <c r="J189" s="172">
-        <f t="shared" si="186"/>
+      <c r="J189" s="169">
+        <f t="shared" si="93"/>
         <v>1337549</v>
       </c>
     </row>
     <row r="190" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G190" s="173">
+      <c r="G190" s="170">
         <v>42644</v>
       </c>
-      <c r="H190" s="172">
-        <f>H187+(H191-H187)*2/3</f>
-        <v>2520481.8000000003</v>
-      </c>
-      <c r="I190" s="172">
-        <f t="shared" ref="I190:J190" si="187">I187+(I191-I187)*2/3</f>
-        <v>1182843.6666666667</v>
-      </c>
-      <c r="J190" s="172">
-        <f t="shared" si="187"/>
-        <v>1346400</v>
+      <c r="H190" s="169">
+        <f>H187+(H191-H187)*3/4</f>
+        <v>2522587.25</v>
+      </c>
+      <c r="I190" s="169">
+        <f>I187+(I191-I187)*3/4</f>
+        <v>1184237.75</v>
+      </c>
+      <c r="J190" s="169">
+        <f>J187+(J191-J187)*3/4</f>
+        <v>1350825.5</v>
       </c>
     </row>
     <row r="191" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G191" s="173">
+      <c r="G191" s="170">
         <v>42736</v>
       </c>
-      <c r="H191" s="172">
+      <c r="H191" s="169">
         <f>C50</f>
         <v>2528903.6</v>
       </c>
-      <c r="I191" s="172">
-        <f t="shared" ref="I191:J191" si="188">D50</f>
+      <c r="I191" s="169">
+        <f t="shared" ref="I191:J191" si="94">D50</f>
         <v>1188420</v>
       </c>
-      <c r="J191" s="172">
-        <f t="shared" si="188"/>
+      <c r="J191" s="169">
+        <f t="shared" si="94"/>
         <v>1364102</v>
       </c>
     </row>
     <row r="192" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G192" s="173">
+      <c r="G192" s="170">
         <v>42826</v>
       </c>
-      <c r="H192" s="172">
-        <f>H191+(H195-H191)/3</f>
-        <v>2546012.6666666665</v>
-      </c>
-      <c r="I192" s="172">
-        <f t="shared" ref="I192:J192" si="189">I191+(I195-I191)/3</f>
-        <v>1200697.6666666667</v>
-      </c>
-      <c r="J192" s="172">
-        <f t="shared" si="189"/>
-        <v>1381657</v>
+      <c r="H192" s="169">
+        <f>H191+(H195-H191)/4</f>
+        <v>2541735.4</v>
+      </c>
+      <c r="I192" s="169">
+        <f>I191+(I195-I191)/4</f>
+        <v>1197628.25</v>
+      </c>
+      <c r="J192" s="169">
+        <f>J191+(J195-J191)/4</f>
+        <v>1377268.25</v>
       </c>
     </row>
     <row r="193" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G193" s="173">
+      <c r="G193" s="170">
         <v>42917</v>
       </c>
-      <c r="H193" s="172">
+      <c r="H193" s="169">
         <f>H191+(H195-H191)/2</f>
         <v>2554567.2000000002</v>
       </c>
-      <c r="I193" s="172">
-        <f t="shared" ref="I193:J193" si="190">I191+(I195-I191)/2</f>
+      <c r="I193" s="169">
+        <f t="shared" ref="I193:J193" si="95">I191+(I195-I191)/2</f>
         <v>1206836.5</v>
       </c>
-      <c r="J193" s="172">
-        <f t="shared" si="190"/>
+      <c r="J193" s="169">
+        <f t="shared" si="95"/>
         <v>1390434.5</v>
       </c>
     </row>
     <row r="194" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G194" s="173">
+      <c r="G194" s="170">
         <v>43009</v>
       </c>
-      <c r="H194" s="172">
-        <f>H191+(H195-H191)*2/3</f>
-        <v>2563121.7333333334</v>
-      </c>
-      <c r="I194" s="172">
-        <f t="shared" ref="I194:J194" si="191">I191+(I195-I191)*2/3</f>
-        <v>1212975.3333333333</v>
-      </c>
-      <c r="J194" s="172">
-        <f t="shared" si="191"/>
-        <v>1399212</v>
+      <c r="H194" s="169">
+        <f>H191+(H195-H191)*3/4</f>
+        <v>2567399</v>
+      </c>
+      <c r="I194" s="169">
+        <f>I191+(I195-I191)*3/4</f>
+        <v>1216044.75</v>
+      </c>
+      <c r="J194" s="169">
+        <f>J191+(J195-J191)*3/4</f>
+        <v>1403600.75</v>
       </c>
     </row>
     <row r="195" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G195" s="173">
+      <c r="G195" s="170">
         <v>43101</v>
       </c>
-      <c r="H195" s="172">
+      <c r="H195" s="169">
         <f>C51</f>
         <v>2580230.7999999998</v>
       </c>
-      <c r="I195" s="172">
-        <f t="shared" ref="I195:J195" si="192">D51</f>
+      <c r="I195" s="169">
+        <f t="shared" ref="I195:J195" si="96">D51</f>
         <v>1225253</v>
       </c>
-      <c r="J195" s="172">
-        <f t="shared" si="192"/>
+      <c r="J195" s="169">
+        <f t="shared" si="96"/>
         <v>1416767</v>
       </c>
     </row>
     <row r="196" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G196" s="173">
+      <c r="G196" s="170">
         <v>43191</v>
       </c>
-      <c r="H196" s="172">
-        <f>H195+(H199-H195)/3</f>
-        <v>2578606.6666666665</v>
-      </c>
-      <c r="I196" s="172">
-        <f t="shared" ref="I196:J196" si="193">I195+(I199-I195)/3</f>
-        <v>1236822</v>
-      </c>
-      <c r="J196" s="172">
-        <f t="shared" si="193"/>
-        <v>1428346.3333333333</v>
+      <c r="H196" s="169">
+        <f>H195+(H199-H195)/4</f>
+        <v>2579012.6999999997</v>
+      </c>
+      <c r="I196" s="169">
+        <f>I195+(I199-I195)/4</f>
+        <v>1233929.75</v>
+      </c>
+      <c r="J196" s="169">
+        <f>J195+(J199-J195)/4</f>
+        <v>1425451.5</v>
       </c>
     </row>
     <row r="197" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G197" s="173">
+      <c r="G197" s="170">
         <v>43282</v>
       </c>
-      <c r="H197" s="172">
+      <c r="H197" s="169">
         <f>H195+(H199-H195)/2</f>
         <v>2577794.5999999996</v>
       </c>
-      <c r="I197" s="172">
-        <f t="shared" ref="I197:J197" si="194">I195+(I199-I195)/2</f>
+      <c r="I197" s="169">
+        <f t="shared" ref="I197:J197" si="97">I195+(I199-I195)/2</f>
         <v>1242606.5</v>
       </c>
-      <c r="J197" s="172">
-        <f t="shared" si="194"/>
+      <c r="J197" s="169">
+        <f t="shared" si="97"/>
         <v>1434136</v>
       </c>
     </row>
     <row r="198" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G198" s="173">
+      <c r="G198" s="170">
         <v>43374</v>
       </c>
-      <c r="H198" s="172">
-        <f>H195+(H199-H195)*2/3</f>
-        <v>2576982.5333333332</v>
-      </c>
-      <c r="I198" s="172">
-        <f t="shared" ref="I198:J198" si="195">I195+(I199-I195)*2/3</f>
-        <v>1248391</v>
-      </c>
-      <c r="J198" s="172">
-        <f t="shared" si="195"/>
-        <v>1439925.6666666667</v>
+      <c r="H198" s="169">
+        <f>H195+(H199-H195)*3/4</f>
+        <v>2576576.5</v>
+      </c>
+      <c r="I198" s="169">
+        <f>I195+(I199-I195)*3/4</f>
+        <v>1251283.25</v>
+      </c>
+      <c r="J198" s="169">
+        <f>J195+(J199-J195)*3/4</f>
+        <v>1442820.5</v>
       </c>
     </row>
     <row r="199" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G199" s="173">
+      <c r="G199" s="170">
         <v>43466</v>
       </c>
-      <c r="H199" s="172">
+      <c r="H199" s="169">
         <f>C52</f>
         <v>2575358.4</v>
       </c>
-      <c r="I199" s="172">
-        <f t="shared" ref="I199:J199" si="196">D52</f>
+      <c r="I199" s="169">
+        <f t="shared" ref="I199:J199" si="98">D52</f>
         <v>1259960</v>
       </c>
-      <c r="J199" s="172">
-        <f t="shared" si="196"/>
+      <c r="J199" s="169">
+        <f t="shared" si="98"/>
         <v>1451505</v>
       </c>
     </row>
     <row r="200" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G200" s="173">
+      <c r="G200" s="170">
         <v>43556</v>
       </c>
-      <c r="H200" s="172">
-        <f>H199+(H203-H199)/3</f>
-        <v>2582238.0666666664</v>
-      </c>
-      <c r="I200" s="172">
-        <f t="shared" ref="I200:J200" si="197">I199+(I203-I199)/3</f>
-        <v>1275757.6666666667</v>
-      </c>
-      <c r="J200" s="172">
-        <f t="shared" si="197"/>
-        <v>1456855.6666666667</v>
+      <c r="H200" s="169">
+        <f>H199+(H203-H199)/4</f>
+        <v>2580518.15</v>
+      </c>
+      <c r="I200" s="169">
+        <f>I199+(I203-I199)/4</f>
+        <v>1271808.25</v>
+      </c>
+      <c r="J200" s="169">
+        <f>J199+(J203-J199)/4</f>
+        <v>1455518</v>
       </c>
     </row>
     <row r="201" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G201" s="173">
+      <c r="G201" s="170">
         <v>43647</v>
       </c>
-      <c r="H201" s="172">
+      <c r="H201" s="169">
         <f>H199+(H203-H199)/2</f>
         <v>2585677.9</v>
       </c>
-      <c r="I201" s="172">
-        <f t="shared" ref="I201:J201" si="198">I199+(I203-I199)/2</f>
+      <c r="I201" s="169">
+        <f t="shared" ref="I201:J201" si="99">I199+(I203-I199)/2</f>
         <v>1283656.5</v>
       </c>
-      <c r="J201" s="172">
-        <f t="shared" si="198"/>
+      <c r="J201" s="169">
+        <f t="shared" si="99"/>
         <v>1459531</v>
       </c>
     </row>
     <row r="202" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G202" s="173">
+      <c r="G202" s="170">
         <v>43739</v>
       </c>
-      <c r="H202" s="172">
-        <f>H199+(H203-H199)*2/3</f>
-        <v>2589117.7333333334</v>
-      </c>
-      <c r="I202" s="172">
-        <f t="shared" ref="I202:J202" si="199">I199+(I203-I199)*2/3</f>
-        <v>1291555.3333333333</v>
-      </c>
-      <c r="J202" s="172">
-        <f t="shared" si="199"/>
-        <v>1462206.3333333333</v>
+      <c r="H202" s="169">
+        <f>H199+(H203-H199)*3/4</f>
+        <v>2590837.65</v>
+      </c>
+      <c r="I202" s="169">
+        <f>I199+(I203-I199)*3/4</f>
+        <v>1295504.75</v>
+      </c>
+      <c r="J202" s="169">
+        <f>J199+(J203-J199)*3/4</f>
+        <v>1463544</v>
       </c>
     </row>
     <row r="203" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G203" s="173">
+      <c r="G203" s="170">
         <v>43831</v>
       </c>
-      <c r="H203" s="172">
+      <c r="H203" s="169">
         <f>C53</f>
         <v>2595997.4</v>
       </c>
-      <c r="I203" s="172">
-        <f t="shared" ref="I203:J203" si="200">D53</f>
+      <c r="I203" s="169">
+        <f t="shared" ref="I203:J203" si="100">D53</f>
         <v>1307353</v>
       </c>
-      <c r="J203" s="172">
-        <f t="shared" si="200"/>
+      <c r="J203" s="169">
+        <f t="shared" si="100"/>
         <v>1467557</v>
       </c>
     </row>
     <row r="204" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G204" s="173">
+      <c r="G204" s="170">
         <v>43922</v>
       </c>
-      <c r="H204" s="172">
-        <f>H203+(H207-H203)/3</f>
-        <v>2644337.4666666668</v>
-      </c>
-      <c r="I204" s="172">
-        <f t="shared" ref="I204:J204" si="201">I203+(I207-I203)/3</f>
-        <v>1349799</v>
-      </c>
-      <c r="J204" s="172">
-        <f t="shared" si="201"/>
-        <v>1497841</v>
+      <c r="H204" s="169">
+        <f>H203+(H207-H203)/4</f>
+        <v>2632252.4500000002</v>
+      </c>
+      <c r="I204" s="169">
+        <f>I203+(I207-I203)/4</f>
+        <v>1339187.5</v>
+      </c>
+      <c r="J204" s="169">
+        <f>J203+(J207-J203)/4</f>
+        <v>1490270</v>
       </c>
     </row>
     <row r="205" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G205" s="173">
+      <c r="G205" s="170">
         <v>44013</v>
       </c>
-      <c r="H205" s="172">
+      <c r="H205" s="169">
         <f>H203+(H207-H203)/2</f>
         <v>2668507.5</v>
       </c>
-      <c r="I205" s="172">
-        <f t="shared" ref="I205:J205" si="202">I203+(I207-I203)/2</f>
+      <c r="I205" s="169">
+        <f t="shared" ref="I205:J205" si="101">I203+(I207-I203)/2</f>
         <v>1371022</v>
       </c>
-      <c r="J205" s="172">
-        <f t="shared" si="202"/>
+      <c r="J205" s="169">
+        <f t="shared" si="101"/>
         <v>1512983</v>
       </c>
     </row>
     <row r="206" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G206" s="173">
+      <c r="G206" s="170">
         <v>44105</v>
       </c>
-      <c r="H206" s="172">
-        <f>H203+(H207-H203)*2/3</f>
-        <v>2692677.5333333332</v>
-      </c>
-      <c r="I206" s="172">
-        <f t="shared" ref="I206:J206" si="203">I203+(I207-I203)*2/3</f>
-        <v>1392245</v>
-      </c>
-      <c r="J206" s="172">
-        <f t="shared" si="203"/>
-        <v>1528125</v>
+      <c r="H206" s="169">
+        <f>H203+(H207-H203)*3/4</f>
+        <v>2704762.55</v>
+      </c>
+      <c r="I206" s="169">
+        <f>I203+(I207-I203)*3/4</f>
+        <v>1402856.5</v>
+      </c>
+      <c r="J206" s="169">
+        <f>J203+(J207-J203)*3/4</f>
+        <v>1535696</v>
       </c>
     </row>
     <row r="207" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G207" s="173">
+      <c r="G207" s="170">
         <v>44197</v>
       </c>
-      <c r="H207" s="172">
+      <c r="H207" s="169">
         <f>C54</f>
         <v>2741017.6</v>
       </c>
-      <c r="I207" s="172">
-        <f t="shared" ref="I207:J207" si="204">D54</f>
+      <c r="I207" s="169">
+        <f t="shared" ref="I207:J207" si="102">D54</f>
         <v>1434691</v>
       </c>
-      <c r="J207" s="172">
-        <f t="shared" si="204"/>
+      <c r="J207" s="169">
+        <f t="shared" si="102"/>
         <v>1558409</v>
       </c>
     </row>
     <row r="208" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G208" s="173">
+      <c r="G208" s="170">
         <v>44287</v>
       </c>
-      <c r="H208" s="172">
-        <f>H207+(H211-H207)/3</f>
-        <v>2832730.2333333334</v>
-      </c>
-      <c r="I208" s="172">
-        <f t="shared" ref="I208:J208" si="205">I207+(I211-I207)/3</f>
-        <v>1477812</v>
-      </c>
-      <c r="J208" s="172">
-        <f t="shared" si="205"/>
-        <v>1607572</v>
+      <c r="H208" s="169">
+        <f>H207+(H211-H207)/4</f>
+        <v>2809802.0750000002</v>
+      </c>
+      <c r="I208" s="169">
+        <f>I207+(I211-I207)/4</f>
+        <v>1467031.75</v>
+      </c>
+      <c r="J208" s="169">
+        <f>J207+(J211-J207)/4</f>
+        <v>1595281.25</v>
       </c>
     </row>
     <row r="209" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G209" s="173">
+      <c r="G209" s="170">
         <v>44378</v>
       </c>
-      <c r="H209" s="172">
+      <c r="H209" s="169">
         <f>H207+(H211-H207)/2</f>
         <v>2878586.55</v>
       </c>
-      <c r="I209" s="172">
-        <f t="shared" ref="I209:J209" si="206">I207+(I211-I207)/2</f>
+      <c r="I209" s="169">
+        <f t="shared" ref="I209:J209" si="103">I207+(I211-I207)/2</f>
         <v>1499372.5</v>
       </c>
-      <c r="J209" s="172">
-        <f t="shared" si="206"/>
+      <c r="J209" s="169">
+        <f t="shared" si="103"/>
         <v>1632153.5</v>
       </c>
     </row>
     <row r="210" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G210" s="173">
+      <c r="G210" s="170">
         <v>44470</v>
       </c>
-      <c r="H210" s="172">
-        <f>H207+(H211-H207)*2/3</f>
-        <v>2924442.8666666667</v>
-      </c>
-      <c r="I210" s="172">
-        <f t="shared" ref="I210:J210" si="207">I207+(I211-I207)*2/3</f>
-        <v>1520933</v>
-      </c>
-      <c r="J210" s="172">
-        <f t="shared" si="207"/>
-        <v>1656735</v>
+      <c r="H210" s="169">
+        <f>H207+(H211-H207)*3/4</f>
+        <v>2947371.0249999999</v>
+      </c>
+      <c r="I210" s="169">
+        <f>I207+(I211-I207)*3/4</f>
+        <v>1531713.25</v>
+      </c>
+      <c r="J210" s="169">
+        <f>J207+(J211-J207)*3/4</f>
+        <v>1669025.75</v>
       </c>
     </row>
     <row r="211" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G211" s="173">
+      <c r="G211" s="170">
         <v>44562</v>
       </c>
-      <c r="H211" s="172">
+      <c r="H211" s="169">
         <f>C55</f>
         <v>3016155.5</v>
       </c>
-      <c r="I211" s="172">
-        <f t="shared" ref="I211:J211" si="208">D55</f>
+      <c r="I211" s="169">
+        <f t="shared" ref="I211:J211" si="104">D55</f>
         <v>1564054</v>
       </c>
-      <c r="J211" s="172">
-        <f t="shared" si="208"/>
+      <c r="J211" s="169">
+        <f t="shared" si="104"/>
         <v>1705898</v>
       </c>
     </row>
     <row r="212" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G212" s="173">
+      <c r="G212" s="170">
         <v>44652</v>
       </c>
-      <c r="H212" s="172">
-        <f>H211+(H215-H211)/3</f>
-        <v>3053925.7666666666</v>
-      </c>
-      <c r="I212" s="172">
-        <f t="shared" ref="I212:J212" si="209">I211+(I215-I211)/3</f>
-        <v>1042702.6666666667</v>
-      </c>
-      <c r="J212" s="172">
-        <f t="shared" si="209"/>
-        <v>1749377.6666666667</v>
+      <c r="H212" s="169">
+        <f>H211+(H215-H211)/4</f>
+        <v>3044483.2</v>
+      </c>
+      <c r="I212" s="169">
+        <v>0</v>
+      </c>
+      <c r="J212" s="169">
+        <f>J211+(J215-J211)/4</f>
+        <v>1738507.75</v>
       </c>
     </row>
     <row r="213" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G213" s="173">
+      <c r="G213" s="170">
         <v>44743</v>
       </c>
-      <c r="H213" s="172">
+      <c r="H213" s="169">
         <f>H211+(H215-H211)/2</f>
         <v>3072810.9</v>
       </c>
-      <c r="I213" s="172">
-        <f t="shared" ref="I213:J213" si="210">I211+(I215-I211)/2</f>
-        <v>782027</v>
-      </c>
-      <c r="J213" s="172">
-        <f t="shared" si="210"/>
+      <c r="I213" s="169">
+        <v>0</v>
+      </c>
+      <c r="J213" s="169">
+        <f t="shared" ref="I213:J213" si="105">J211+(J215-J211)/2</f>
         <v>1771117.5</v>
       </c>
     </row>
     <row r="214" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G214" s="173">
+      <c r="G214" s="170">
         <v>44835</v>
       </c>
-      <c r="H214" s="172">
-        <f>H211+(H215-H211)*2/3</f>
-        <v>3091696.0333333332</v>
-      </c>
-      <c r="I214" s="172">
-        <f t="shared" ref="I214:J214" si="211">I211+(I215-I211)*2/3</f>
-        <v>521351.33333333337</v>
-      </c>
-      <c r="J214" s="172">
-        <f t="shared" si="211"/>
-        <v>1792857.3333333333</v>
+      <c r="H214" s="169">
+        <f>H211+(H215-H211)*3/4</f>
+        <v>3101138.5999999996</v>
+      </c>
+      <c r="I214" s="169">
+        <v>0</v>
+      </c>
+      <c r="J214" s="169">
+        <f>J211+(J215-J211)*3/4</f>
+        <v>1803727.25</v>
       </c>
     </row>
     <row r="215" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G215" s="173">
+      <c r="G215" s="170">
         <v>44927</v>
       </c>
       <c r="H215">
@@ -11712,84 +11888,75 @@
         <v>3129466.3</v>
       </c>
       <c r="I215">
-        <f t="shared" ref="I215:J215" si="212">D56</f>
+        <f t="shared" ref="I215:J215" si="106">D56</f>
         <v>0</v>
       </c>
       <c r="J215">
-        <f t="shared" si="212"/>
+        <f t="shared" si="106"/>
         <v>1836337</v>
       </c>
     </row>
     <row r="216" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G216" s="173">
+      <c r="G216" s="170">
         <v>45017</v>
       </c>
-      <c r="H216" s="172">
-        <f>H215+(H219-H215)/3</f>
-        <v>2086310.8666666667</v>
-      </c>
-      <c r="I216" s="172">
-        <f t="shared" ref="I216:J216" si="213">I215+(I219-I215)/3</f>
-        <v>0</v>
-      </c>
-      <c r="J216" s="172">
-        <f t="shared" si="213"/>
-        <v>1224224.6666666665</v>
+      <c r="H216" s="169">
+        <v>0</v>
+      </c>
+      <c r="I216" s="169">
+        <v>0</v>
+      </c>
+      <c r="J216" s="169">
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G217" s="173">
+      <c r="G217" s="170">
         <v>45108</v>
       </c>
-      <c r="H217" s="172">
-        <f>H215+(H219-H215)/2</f>
-        <v>1564733.15</v>
-      </c>
-      <c r="I217" s="172">
-        <f t="shared" ref="I217:J217" si="214">I215+(I219-I215)/2</f>
-        <v>0</v>
-      </c>
-      <c r="J217" s="172">
-        <f t="shared" si="214"/>
-        <v>918168.5</v>
+      <c r="H217" s="169">
+        <v>0</v>
+      </c>
+      <c r="I217" s="169">
+        <v>0</v>
+      </c>
+      <c r="J217" s="169">
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G218" s="173">
+      <c r="G218" s="170">
         <v>45200</v>
       </c>
-      <c r="H218" s="172">
-        <f>H215+(H219-H215)*2/3</f>
-        <v>1043155.4333333333</v>
-      </c>
-      <c r="I218" s="172">
-        <f t="shared" ref="I218:J218" si="215">I215+(I219-I215)*2/3</f>
-        <v>0</v>
-      </c>
-      <c r="J218" s="172">
-        <f t="shared" si="215"/>
-        <v>612112.33333333326</v>
+      <c r="H218" s="169">
+        <v>0</v>
+      </c>
+      <c r="I218" s="169">
+        <v>0</v>
+      </c>
+      <c r="J218" s="169">
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G219" s="173">
+      <c r="G219" s="170">
         <v>45292</v>
       </c>
-      <c r="H219" s="172">
+      <c r="H219" s="169">
         <f>C57</f>
         <v>0</v>
       </c>
-      <c r="I219" s="172">
-        <f t="shared" ref="I219:J219" si="216">D57</f>
-        <v>0</v>
-      </c>
-      <c r="J219" s="172">
-        <f t="shared" si="216"/>
+      <c r="I219" s="169">
+        <f t="shared" ref="I219:J219" si="107">D57</f>
+        <v>0</v>
+      </c>
+      <c r="J219" s="169">
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
     </row>
     <row r="220" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G220" s="173">
+      <c r="G220" s="170">
         <v>45383</v>
       </c>
       <c r="H220">
@@ -11803,7 +11970,7 @@
       </c>
     </row>
     <row r="221" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G221" s="173">
+      <c r="G221" s="170">
         <v>45474</v>
       </c>
       <c r="H221">
@@ -11817,7 +11984,7 @@
       </c>
     </row>
     <row r="222" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G222" s="173">
+      <c r="G222" s="170">
         <v>45566</v>
       </c>
       <c r="H222">
